--- a/output7/a702_Test_Case.xlsx
+++ b/output7/a702_Test_Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC68910-7BA0-4948-A915-80B4E7AF2F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02F42EC-98EA-41A1-9078-5B2F4E768DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24975" yWindow="1080" windowWidth="22575" windowHeight="14280" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="1175">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4049,6 +4049,10 @@
   </si>
   <si>
     <t>(145, 17)</t>
+  </si>
+  <si>
+    <t>銜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4619,6 +4623,9 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -4627,9 +4634,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5735,8 +5739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A135" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -5868,7 +5872,7 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="T3" s="24"/>
-      <c r="V3" s="56" t="s">
+      <c r="V3" s="57" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5916,13 +5920,13 @@
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="27"/>
-      <c r="V4" s="57"/>
+      <c r="V4" s="58"/>
     </row>
     <row r="5" spans="1:22" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="56" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="51" t="s">
@@ -5968,7 +5972,7 @@
         <v>38</v>
       </c>
       <c r="S5" s="29"/>
-      <c r="V5" s="57"/>
+      <c r="V5" s="58"/>
     </row>
     <row r="6" spans="1:22" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="30"/>
@@ -6015,7 +6019,7 @@
       </c>
       <c r="R6" s="32"/>
       <c r="S6" s="33"/>
-      <c r="V6" s="57"/>
+      <c r="V6" s="58"/>
     </row>
     <row r="7" spans="1:22" s="38" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="35"/>
@@ -6036,7 +6040,7 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="37"/>
-      <c r="V7" s="57"/>
+      <c r="V7" s="58"/>
     </row>
     <row r="8" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="25"/>
@@ -6080,7 +6084,7 @@
         <v>572</v>
       </c>
       <c r="S8" s="27"/>
-      <c r="V8" s="57"/>
+      <c r="V8" s="58"/>
     </row>
     <row r="9" spans="1:22" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="28">
@@ -6134,7 +6138,7 @@
       </c>
       <c r="S9" s="29"/>
       <c r="T9" s="24"/>
-      <c r="V9" s="57"/>
+      <c r="V9" s="58"/>
     </row>
     <row r="10" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="30"/>
@@ -6178,7 +6182,7 @@
         <v>573</v>
       </c>
       <c r="S10" s="39"/>
-      <c r="V10" s="57"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="40"/>
@@ -6198,7 +6202,7 @@
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
-      <c r="V11" s="57"/>
+      <c r="V11" s="58"/>
     </row>
     <row r="12" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="25"/>
@@ -6244,7 +6248,7 @@
         <v>598</v>
       </c>
       <c r="S12" s="27"/>
-      <c r="V12" s="57"/>
+      <c r="V12" s="58"/>
     </row>
     <row r="13" spans="1:22" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="28">
@@ -6297,7 +6301,7 @@
         <v>117</v>
       </c>
       <c r="S13" s="29"/>
-      <c r="V13" s="57"/>
+      <c r="V13" s="58"/>
     </row>
     <row r="14" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="30"/>
@@ -6343,7 +6347,7 @@
         <v>599</v>
       </c>
       <c r="S14" s="39"/>
-      <c r="V14" s="57"/>
+      <c r="V14" s="58"/>
     </row>
     <row r="15" spans="1:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="20"/>
@@ -6363,7 +6367,7 @@
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
-      <c r="V15" s="57"/>
+      <c r="V15" s="58"/>
     </row>
     <row r="16" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="25"/>
@@ -6409,7 +6413,7 @@
       </c>
       <c r="R16" s="26"/>
       <c r="S16" s="27"/>
-      <c r="V16" s="57"/>
+      <c r="V16" s="58"/>
     </row>
     <row r="17" spans="2:22" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="28">
@@ -6462,7 +6466,7 @@
         <v>38</v>
       </c>
       <c r="S17" s="29"/>
-      <c r="V17" s="57"/>
+      <c r="V17" s="58"/>
     </row>
     <row r="18" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="30"/>
@@ -6508,7 +6512,7 @@
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="39"/>
-      <c r="V18" s="57"/>
+      <c r="V18" s="58"/>
     </row>
     <row r="19" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="20"/>
@@ -6528,7 +6532,7 @@
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
-      <c r="V19" s="57"/>
+      <c r="V19" s="58"/>
     </row>
     <row r="20" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="25"/>
@@ -6548,7 +6552,7 @@
       <c r="Q20" s="26"/>
       <c r="R20" s="26"/>
       <c r="S20" s="27"/>
-      <c r="V20" s="57"/>
+      <c r="V20" s="58"/>
     </row>
     <row r="21" spans="2:22" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="28">
@@ -6575,7 +6579,7 @@
       <c r="Q21" s="51"/>
       <c r="R21" s="51"/>
       <c r="S21" s="29"/>
-      <c r="V21" s="57"/>
+      <c r="V21" s="58"/>
     </row>
     <row r="22" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="30"/>
@@ -6595,7 +6599,7 @@
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="39"/>
-      <c r="V22" s="58"/>
+      <c r="V22" s="59"/>
     </row>
     <row r="23" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="20"/>
@@ -6752,7 +6756,9 @@
         <v>638</v>
       </c>
       <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
+      <c r="R28" s="26" t="s">
+        <v>503</v>
+      </c>
       <c r="S28" s="27"/>
       <c r="U28" s="43" t="str">
         <f t="shared" si="1"/>
@@ -6808,7 +6814,7 @@
         <v>38</v>
       </c>
       <c r="R29" s="51" t="s">
-        <v>135</v>
+        <v>1174</v>
       </c>
       <c r="S29" s="29"/>
       <c r="U29" s="43" t="str">
@@ -7063,7 +7069,9 @@
       <c r="F36" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="G36" s="26"/>
+      <c r="G36" s="26" t="s">
+        <v>402</v>
+      </c>
       <c r="H36" s="26" t="s">
         <v>660</v>
       </c>
@@ -7886,7 +7894,9 @@
       <c r="E60" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="F60" s="26"/>
+      <c r="F60" s="26" t="s">
+        <v>505</v>
+      </c>
       <c r="G60" s="26" t="s">
         <v>610</v>
       </c>
@@ -8219,7 +8229,9 @@
         <v>751</v>
       </c>
       <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
+      <c r="K68" s="26" t="s">
+        <v>507</v>
+      </c>
       <c r="L68" s="26" t="s">
         <v>753</v>
       </c>
@@ -8533,7 +8545,9 @@
       <c r="H76" s="26" t="s">
         <v>785</v>
       </c>
-      <c r="I76" s="26"/>
+      <c r="I76" s="26" t="s">
+        <v>509</v>
+      </c>
       <c r="J76" s="26" t="s">
         <v>787</v>
       </c>
@@ -9219,13 +9233,19 @@
       <c r="G96" s="26" t="s">
         <v>839</v>
       </c>
-      <c r="H96" s="26"/>
+      <c r="H96" s="26" t="s">
+        <v>511</v>
+      </c>
       <c r="I96" s="26" t="s">
         <v>809</v>
       </c>
       <c r="J96" s="26"/>
-      <c r="K96" s="26"/>
-      <c r="L96" s="26"/>
+      <c r="K96" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="L96" s="26" t="s">
+        <v>513</v>
+      </c>
       <c r="M96" s="26" t="s">
         <v>841</v>
       </c>
@@ -11067,7 +11087,9 @@
         <v>871</v>
       </c>
       <c r="G144" s="26"/>
-      <c r="H144" s="26"/>
+      <c r="H144" s="26" t="s">
+        <v>515</v>
+      </c>
       <c r="I144" s="26"/>
       <c r="J144" s="26" t="s">
         <v>931</v>

--- a/output7/a702_Test_Case.xlsx
+++ b/output7/a702_Test_Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02F42EC-98EA-41A1-9078-5B2F4E768DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7F553F-DE6D-4422-B5ED-BDC963EE4EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="Q28" s="26"/>
       <c r="R28" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S28" s="27"/>
       <c r="U28" s="43" t="str">
@@ -7070,7 +7070,7 @@
         <v>658</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>402</v>
+        <v>502</v>
       </c>
       <c r="H36" s="26" t="s">
         <v>660</v>
@@ -7895,7 +7895,7 @@
         <v>624</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>610</v>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="J68" s="26"/>
       <c r="K68" s="26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L68" s="26" t="s">
         <v>753</v>
@@ -8546,7 +8546,7 @@
         <v>785</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J76" s="26" t="s">
         <v>787</v>
@@ -9234,17 +9234,17 @@
         <v>839</v>
       </c>
       <c r="H96" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I96" s="26" t="s">
         <v>809</v>
       </c>
       <c r="J96" s="26"/>
       <c r="K96" s="26" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L96" s="26" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M96" s="26" t="s">
         <v>841</v>
@@ -11088,7 +11088,7 @@
       </c>
       <c r="G144" s="26"/>
       <c r="H144" s="26" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I144" s="26"/>
       <c r="J144" s="26" t="s">
@@ -13333,7 +13333,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17593,7 +17593,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="A2" sqref="A2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/output7/a702_Test_Case.xlsx
+++ b/output7/a702_Test_Case.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7F553F-DE6D-4422-B5ED-BDC963EE4EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB757955-2ABD-4C7F-902C-FC68634C5857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId2"/>
-    <sheet name="缺字表" sheetId="116" r:id="rId3"/>
-    <sheet name="人工標音字庫" sheetId="115" r:id="rId4"/>
+    <sheet name="人工標音字庫" sheetId="117" r:id="rId3"/>
+    <sheet name="缺字表" sheetId="116" r:id="rId4"/>
     <sheet name="標音字庫" sheetId="114" r:id="rId5"/>
     <sheet name="缺字表 (範例)" sheetId="110" r:id="rId6"/>
     <sheet name="缺字表 (範例r1)" sheetId="100" r:id="rId7"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="1184">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1700,14 +1700,6 @@
     <t>(145, 8)</t>
   </si>
   <si>
-    <t>khing3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經三去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lah8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1920,14 +1912,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lau5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交五柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zing1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4052,6 +4036,49 @@
   </si>
   <si>
     <t>銜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘五喜</t>
+  </si>
+  <si>
+    <t>規一喜</t>
+  </si>
+  <si>
+    <t>金五英</t>
+  </si>
+  <si>
+    <t>恭五出</t>
+  </si>
+  <si>
+    <t>甘五出</t>
+  </si>
+  <si>
+    <t>經一他</t>
+  </si>
+  <si>
+    <t>恭四喜</t>
+  </si>
+  <si>
+    <t>居一英</t>
+  </si>
+  <si>
+    <t>khing7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經七去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loo5</t>
+  </si>
+  <si>
+    <t>loo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽五柳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4455,7 +4482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4617,12 +4644,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4634,6 +4655,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5739,9 +5769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A135" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H145" sqref="H145"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -5856,7 +5884,9 @@
     <row r="3" spans="1:22" s="23" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>1179</v>
+      </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -5872,154 +5902,154 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="T3" s="24"/>
-      <c r="V3" s="57" t="s">
+      <c r="V3" s="55" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="25"/>
       <c r="D4" s="26" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>527</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="26" t="s">
         <v>529</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>531</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>58</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>536</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="L4" s="26" t="s">
         <v>538</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="M4" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="N4" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="O4" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="P4" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="Q4" s="26" t="s">
         <v>548</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>550</v>
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="27"/>
-      <c r="V4" s="58"/>
+      <c r="V4" s="56"/>
     </row>
     <row r="5" spans="1:22" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="54" t="s">
         <v>89</v>
       </c>
       <c r="I5" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="51" t="s">
+      <c r="K5" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="51" t="s">
+      <c r="L5" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="N5" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="51" t="s">
+      <c r="O5" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="51" t="s">
+      <c r="P5" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="54" t="s">
         <v>96</v>
       </c>
       <c r="R5" s="51" t="s">
         <v>38</v>
       </c>
       <c r="S5" s="29"/>
-      <c r="V5" s="58"/>
+      <c r="V5" s="56"/>
     </row>
     <row r="6" spans="1:22" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
       <c r="D6" s="32" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>528</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="32" t="s">
         <v>530</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>532</v>
-      </c>
       <c r="G6" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="H6" s="32" t="s">
         <v>533</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>535</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="K6" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="L6" s="32" t="s">
         <v>539</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="M6" s="32" t="s">
         <v>541</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="N6" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="O6" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="P6" s="32" t="s">
         <v>547</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="Q6" s="32" t="s">
         <v>549</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>551</v>
       </c>
       <c r="R6" s="32"/>
       <c r="S6" s="33"/>
-      <c r="V6" s="58"/>
+      <c r="V6" s="56"/>
     </row>
     <row r="7" spans="1:22" s="38" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="35"/>
@@ -6040,149 +6070,149 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="37"/>
-      <c r="V7" s="58"/>
+      <c r="V7" s="56"/>
     </row>
     <row r="8" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="25"/>
       <c r="D8" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>552</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>554</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="J8" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="K8" s="26" t="s">
         <v>560</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>562</v>
       </c>
       <c r="L8" s="26"/>
       <c r="M8" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="N8" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="O8" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="P8" s="26" t="s">
         <v>568</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>570</v>
       </c>
       <c r="Q8" s="26"/>
       <c r="R8" s="26" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="S8" s="27"/>
-      <c r="V8" s="58"/>
+      <c r="V8" s="56"/>
     </row>
     <row r="9" spans="1:22" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="28">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="54" t="s">
         <v>88</v>
       </c>
       <c r="G9" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="54" t="s">
         <v>37</v>
       </c>
       <c r="L9" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="N9" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="O9" s="51" t="s">
+      <c r="O9" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="P9" s="51" t="s">
+      <c r="P9" s="54" t="s">
         <v>103</v>
       </c>
       <c r="Q9" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="51" t="s">
+      <c r="R9" s="54" t="s">
         <v>104</v>
       </c>
       <c r="S9" s="29"/>
       <c r="T9" s="24"/>
-      <c r="V9" s="58"/>
+      <c r="V9" s="56"/>
     </row>
     <row r="10" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="30"/>
       <c r="D10" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>553</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>555</v>
-      </c>
       <c r="F10" s="32" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="I10" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="J10" s="32" t="s">
         <v>559</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="K10" s="32" t="s">
         <v>561</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>563</v>
       </c>
       <c r="L10" s="32"/>
       <c r="M10" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="N10" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="O10" s="32" t="s">
         <v>567</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="P10" s="32" t="s">
         <v>569</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>571</v>
       </c>
       <c r="Q10" s="32"/>
       <c r="R10" s="32" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="S10" s="39"/>
-      <c r="V10" s="58"/>
+      <c r="V10" s="56"/>
     </row>
     <row r="11" spans="1:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="40"/>
@@ -6202,152 +6232,152 @@
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
-      <c r="V11" s="58"/>
+      <c r="V11" s="56"/>
     </row>
     <row r="12" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="25"/>
       <c r="D12" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>574</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="F12" s="26" t="s">
         <v>576</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="G12" s="26" t="s">
         <v>578</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>580</v>
-      </c>
       <c r="H12" s="26" t="s">
-        <v>582</v>
+        <v>1182</v>
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="L12" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="M12" s="26" t="s">
         <v>586</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>588</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>590</v>
       </c>
       <c r="N12" s="26"/>
       <c r="O12" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q12" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="P12" s="26" t="s">
+      <c r="R12" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="Q12" s="26" t="s">
-        <v>596</v>
-      </c>
-      <c r="R12" s="26" t="s">
-        <v>598</v>
-      </c>
       <c r="S12" s="27"/>
-      <c r="V12" s="58"/>
+      <c r="V12" s="56"/>
     </row>
     <row r="13" spans="1:22" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="28">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="54" t="s">
         <v>109</v>
       </c>
       <c r="I13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="51" t="s">
+      <c r="J13" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="51" t="s">
+      <c r="K13" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="51" t="s">
+      <c r="L13" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="51" t="s">
+      <c r="M13" s="54" t="s">
         <v>113</v>
       </c>
       <c r="N13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="51" t="s">
+      <c r="O13" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="P13" s="51" t="s">
+      <c r="P13" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="Q13" s="51" t="s">
+      <c r="Q13" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="51" t="s">
+      <c r="R13" s="54" t="s">
         <v>117</v>
       </c>
       <c r="S13" s="29"/>
-      <c r="V13" s="58"/>
+      <c r="V13" s="56"/>
     </row>
     <row r="14" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="30"/>
       <c r="D14" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>575</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="F14" s="32" t="s">
         <v>577</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="G14" s="32" t="s">
         <v>579</v>
       </c>
-      <c r="G14" s="32" t="s">
-        <v>581</v>
-      </c>
       <c r="H14" s="32" t="s">
-        <v>583</v>
+        <v>1183</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="L14" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="M14" s="32" t="s">
         <v>587</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>589</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>591</v>
       </c>
       <c r="N14" s="32"/>
       <c r="O14" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q14" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="R14" s="32" t="s">
         <v>595</v>
       </c>
-      <c r="Q14" s="32" t="s">
-        <v>597</v>
-      </c>
-      <c r="R14" s="32" t="s">
-        <v>599</v>
-      </c>
       <c r="S14" s="39"/>
-      <c r="V14" s="58"/>
+      <c r="V14" s="56"/>
     </row>
     <row r="15" spans="1:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="20"/>
@@ -6367,152 +6397,152 @@
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
-      <c r="V15" s="58"/>
+      <c r="V15" s="56"/>
     </row>
     <row r="16" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="25"/>
       <c r="D16" s="26" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E16" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="H16" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="I16" s="26" t="s">
         <v>602</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>604</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>586</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>606</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="M16" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="N16" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="O16" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="P16" s="26" t="s">
         <v>614</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="Q16" s="26" t="s">
         <v>616</v>
-      </c>
-      <c r="P16" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q16" s="26" t="s">
-        <v>620</v>
       </c>
       <c r="R16" s="26"/>
       <c r="S16" s="27"/>
-      <c r="V16" s="58"/>
+      <c r="V16" s="56"/>
     </row>
     <row r="17" spans="2:22" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="28">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="54" t="s">
         <v>26</v>
       </c>
       <c r="J17" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="K17" s="51" t="s">
+      <c r="K17" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="L17" s="51" t="s">
+      <c r="L17" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="51" t="s">
+      <c r="M17" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="N17" s="51" t="s">
+      <c r="N17" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="51" t="s">
+      <c r="O17" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="51" t="s">
+      <c r="P17" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="Q17" s="51" t="s">
+      <c r="Q17" s="54" t="s">
         <v>126</v>
       </c>
       <c r="R17" s="51" t="s">
         <v>38</v>
       </c>
       <c r="S17" s="29"/>
-      <c r="V17" s="58"/>
+      <c r="V17" s="56"/>
     </row>
     <row r="18" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="30"/>
       <c r="D18" s="32" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E18" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="G18" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="H18" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="I18" s="32" t="s">
         <v>603</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>605</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>587</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>607</v>
       </c>
       <c r="J18" s="32"/>
       <c r="K18" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="M18" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="N18" s="32" t="s">
         <v>611</v>
       </c>
-      <c r="M18" s="32" t="s">
+      <c r="O18" s="32" t="s">
         <v>613</v>
       </c>
-      <c r="N18" s="32" t="s">
+      <c r="P18" s="32" t="s">
         <v>615</v>
       </c>
-      <c r="O18" s="32" t="s">
+      <c r="Q18" s="32" t="s">
         <v>617</v>
-      </c>
-      <c r="P18" s="32" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q18" s="32" t="s">
-        <v>621</v>
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="39"/>
-      <c r="V18" s="58"/>
+      <c r="V18" s="56"/>
     </row>
     <row r="19" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="20"/>
@@ -6532,7 +6562,7 @@
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
-      <c r="V19" s="58"/>
+      <c r="V19" s="56"/>
     </row>
     <row r="20" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="25"/>
@@ -6552,7 +6582,7 @@
       <c r="Q20" s="26"/>
       <c r="R20" s="26"/>
       <c r="S20" s="27"/>
-      <c r="V20" s="58"/>
+      <c r="V20" s="56"/>
     </row>
     <row r="21" spans="2:22" s="14" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="28">
@@ -6579,7 +6609,7 @@
       <c r="Q21" s="51"/>
       <c r="R21" s="51"/>
       <c r="S21" s="29"/>
-      <c r="V21" s="58"/>
+      <c r="V21" s="56"/>
     </row>
     <row r="22" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="30"/>
@@ -6599,7 +6629,7 @@
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="39"/>
-      <c r="V22" s="59"/>
+      <c r="V22" s="57"/>
     </row>
     <row r="23" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="20"/>
@@ -6719,41 +6749,41 @@
     <row r="28" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="25"/>
       <c r="D28" s="26" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E28" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="I28" s="26" t="s">
         <v>622</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="J28" s="26" t="s">
         <v>624</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>546</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>548</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>626</v>
-      </c>
-      <c r="J28" s="26" t="s">
-        <v>628</v>
       </c>
       <c r="K28" s="26"/>
       <c r="L28" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="N28" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="O28" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="N28" s="26" t="s">
+      <c r="P28" s="26" t="s">
         <v>634</v>
-      </c>
-      <c r="O28" s="26" t="s">
-        <v>636</v>
-      </c>
-      <c r="P28" s="26" t="s">
-        <v>638</v>
       </c>
       <c r="Q28" s="26"/>
       <c r="R28" s="26" t="s">
@@ -6771,50 +6801,50 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="H29" s="51" t="s">
+      <c r="H29" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="51" t="s">
+      <c r="I29" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="J29" s="51" t="s">
+      <c r="J29" s="54" t="s">
         <v>130</v>
       </c>
       <c r="K29" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="51" t="s">
+      <c r="L29" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="M29" s="51" t="s">
+      <c r="M29" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="N29" s="51" t="s">
+      <c r="N29" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="O29" s="51" t="s">
+      <c r="O29" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="P29" s="51" t="s">
+      <c r="P29" s="54" t="s">
         <v>134</v>
       </c>
       <c r="Q29" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R29" s="51" t="s">
-        <v>1174</v>
+      <c r="R29" s="54" t="s">
+        <v>1170</v>
       </c>
       <c r="S29" s="29"/>
       <c r="U29" s="43" t="str">
@@ -6826,44 +6856,46 @@
     <row r="30" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="30"/>
       <c r="D30" s="32" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E30" s="32" t="s">
+        <v>619</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="I30" s="32" t="s">
         <v>623</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="J30" s="32" t="s">
         <v>625</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>547</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>549</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>627</v>
-      </c>
-      <c r="J30" s="32" t="s">
-        <v>629</v>
       </c>
       <c r="K30" s="32"/>
       <c r="L30" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="M30" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="N30" s="32" t="s">
         <v>631</v>
       </c>
-      <c r="M30" s="32" t="s">
+      <c r="O30" s="32" t="s">
         <v>633</v>
       </c>
-      <c r="N30" s="32" t="s">
+      <c r="P30" s="32" t="s">
         <v>635</v>
       </c>
-      <c r="O30" s="32" t="s">
-        <v>637</v>
-      </c>
-      <c r="P30" s="32" t="s">
-        <v>639</v>
-      </c>
       <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
+      <c r="R30" s="32" t="s">
+        <v>1171</v>
+      </c>
       <c r="S30" s="39"/>
       <c r="U30" s="43" t="str">
         <f t="shared" si="1"/>
@@ -6898,43 +6930,43 @@
     <row r="32" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="25"/>
       <c r="D32" s="26" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="I32" s="26" t="s">
         <v>644</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>646</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>648</v>
       </c>
       <c r="J32" s="26"/>
       <c r="K32" s="26" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="M32" s="26" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="O32" s="26"/>
       <c r="P32" s="26" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="Q32" s="26" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="R32" s="26" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="S32" s="27"/>
       <c r="U32" s="43" t="str">
@@ -6948,49 +6980,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="54" t="s">
         <v>137</v>
       </c>
       <c r="F33" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="H33" s="51" t="s">
+      <c r="H33" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="I33" s="51" t="s">
+      <c r="I33" s="54" t="s">
         <v>140</v>
       </c>
       <c r="J33" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="51" t="s">
+      <c r="K33" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="L33" s="51" t="s">
+      <c r="L33" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="M33" s="51" t="s">
+      <c r="M33" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="N33" s="51" t="s">
+      <c r="N33" s="54" t="s">
         <v>142</v>
       </c>
       <c r="O33" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="51" t="s">
+      <c r="P33" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="Q33" s="51" t="s">
+      <c r="Q33" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="R33" s="51" t="s">
+      <c r="R33" s="54" t="s">
         <v>144</v>
       </c>
       <c r="S33" s="29"/>
@@ -6999,43 +7031,43 @@
     <row r="34" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="30"/>
       <c r="D34" s="32" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="32" t="s">
+        <v>641</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="I34" s="32" t="s">
         <v>645</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>647</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>649</v>
       </c>
       <c r="J34" s="32"/>
       <c r="K34" s="32" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L34" s="32" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="M34" s="32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N34" s="32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="O34" s="32"/>
       <c r="P34" s="32" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="Q34" s="32" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="R34" s="32" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="S34" s="39"/>
       <c r="V34" s="15"/>
@@ -7063,43 +7095,43 @@
     <row r="36" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="25"/>
       <c r="D36" s="26" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>502</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="J36" s="26"/>
       <c r="K36" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="L36" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="N36" s="26" t="s">
         <v>664</v>
-      </c>
-      <c r="L36" s="26" t="s">
-        <v>606</v>
-      </c>
-      <c r="M36" s="26" t="s">
-        <v>666</v>
-      </c>
-      <c r="N36" s="26" t="s">
-        <v>668</v>
       </c>
       <c r="O36" s="26"/>
       <c r="P36" s="26" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="Q36" s="26" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="R36" s="26" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="S36" s="27"/>
       <c r="V36" s="15"/>
@@ -7109,49 +7141,49 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="54" t="s">
         <v>145</v>
       </c>
       <c r="E37" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="51" t="s">
+      <c r="F37" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="51" t="s">
+      <c r="G37" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="H37" s="51" t="s">
+      <c r="H37" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="I37" s="51" t="s">
+      <c r="I37" s="54" t="s">
         <v>149</v>
       </c>
       <c r="J37" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="51" t="s">
+      <c r="K37" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="L37" s="51" t="s">
+      <c r="L37" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="M37" s="51" t="s">
+      <c r="M37" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="N37" s="51" t="s">
+      <c r="N37" s="54" t="s">
         <v>153</v>
       </c>
       <c r="O37" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="51" t="s">
+      <c r="P37" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="Q37" s="51" t="s">
+      <c r="Q37" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="R37" s="51" t="s">
+      <c r="R37" s="54" t="s">
         <v>107</v>
       </c>
       <c r="S37" s="29"/>
@@ -7160,41 +7192,43 @@
     <row r="38" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="30"/>
       <c r="D38" s="32" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="I38" s="32" t="s">
         <v>659</v>
-      </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32" t="s">
-        <v>661</v>
-      </c>
-      <c r="I38" s="32" t="s">
-        <v>663</v>
       </c>
       <c r="J38" s="32"/>
       <c r="K38" s="32" t="s">
+        <v>661</v>
+      </c>
+      <c r="L38" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="M38" s="32" t="s">
+        <v>663</v>
+      </c>
+      <c r="N38" s="32" t="s">
         <v>665</v>
-      </c>
-      <c r="L38" s="32" t="s">
-        <v>607</v>
-      </c>
-      <c r="M38" s="32" t="s">
-        <v>667</v>
-      </c>
-      <c r="N38" s="32" t="s">
-        <v>669</v>
       </c>
       <c r="O38" s="32"/>
       <c r="P38" s="32" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="Q38" s="32" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="R38" s="32" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="S38" s="39"/>
       <c r="V38" s="15"/>
@@ -7222,45 +7256,45 @@
     <row r="40" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="25"/>
       <c r="D40" s="26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>582</v>
+        <v>1182</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="J40" s="26"/>
       <c r="K40" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="L40" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="N40" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="O40" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="L40" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="M40" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="N40" s="26" t="s">
-        <v>680</v>
-      </c>
-      <c r="O40" s="26" t="s">
-        <v>682</v>
-      </c>
       <c r="P40" s="26" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="Q40" s="26"/>
       <c r="R40" s="26" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="S40" s="27"/>
       <c r="V40" s="15"/>
@@ -7270,49 +7304,49 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="51" t="s">
+      <c r="G41" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="51" t="s">
+      <c r="H41" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="51" t="s">
+      <c r="I41" s="54" t="s">
         <v>156</v>
       </c>
       <c r="J41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K41" s="51" t="s">
+      <c r="K41" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="L41" s="51" t="s">
+      <c r="L41" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="M41" s="51" t="s">
+      <c r="M41" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="N41" s="51" t="s">
+      <c r="N41" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="O41" s="51" t="s">
+      <c r="O41" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="P41" s="51" t="s">
+      <c r="P41" s="54" t="s">
         <v>160</v>
       </c>
       <c r="Q41" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R41" s="51" t="s">
+      <c r="R41" s="54" t="s">
         <v>161</v>
       </c>
       <c r="S41" s="29"/>
@@ -7321,45 +7355,45 @@
     <row r="42" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="30"/>
       <c r="D42" s="32" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>583</v>
+        <v>1183</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="I42" s="32" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="J42" s="32"/>
       <c r="K42" s="32" t="s">
+        <v>675</v>
+      </c>
+      <c r="L42" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="M42" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="N42" s="32" t="s">
+        <v>677</v>
+      </c>
+      <c r="O42" s="32" t="s">
         <v>679</v>
       </c>
-      <c r="L42" s="32" t="s">
-        <v>561</v>
-      </c>
-      <c r="M42" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="N42" s="32" t="s">
-        <v>681</v>
-      </c>
-      <c r="O42" s="32" t="s">
-        <v>683</v>
-      </c>
       <c r="P42" s="32" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="Q42" s="32"/>
       <c r="R42" s="32" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="S42" s="39"/>
       <c r="V42" s="15"/>
@@ -7387,45 +7421,45 @@
     <row r="44" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="25"/>
       <c r="D44" s="26" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="I44" s="26"/>
       <c r="J44" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="L44" s="26" t="s">
         <v>690</v>
       </c>
-      <c r="K44" s="26" t="s">
+      <c r="M44" s="26" t="s">
         <v>692</v>
-      </c>
-      <c r="L44" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="M44" s="26" t="s">
-        <v>696</v>
       </c>
       <c r="N44" s="26"/>
       <c r="O44" s="26" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="P44" s="26" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="Q44" s="26" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="R44" s="26" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="S44" s="27"/>
       <c r="V44" s="15"/>
@@ -7435,49 +7469,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="51" t="s">
+      <c r="G45" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="H45" s="51" t="s">
+      <c r="H45" s="54" t="s">
         <v>164</v>
       </c>
       <c r="I45" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="51" t="s">
+      <c r="J45" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="K45" s="51" t="s">
+      <c r="K45" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="51" t="s">
+      <c r="L45" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="M45" s="51" t="s">
+      <c r="M45" s="54" t="s">
         <v>167</v>
       </c>
       <c r="N45" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="O45" s="51" t="s">
+      <c r="O45" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="P45" s="51" t="s">
+      <c r="P45" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="Q45" s="51" t="s">
+      <c r="Q45" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="R45" s="51" t="s">
+      <c r="R45" s="54" t="s">
         <v>45</v>
       </c>
       <c r="S45" s="29"/>
@@ -7486,45 +7520,45 @@
     <row r="46" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="30"/>
       <c r="D46" s="32" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="K46" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="L46" s="32" t="s">
         <v>691</v>
       </c>
-      <c r="K46" s="32" t="s">
+      <c r="M46" s="32" t="s">
         <v>693</v>
-      </c>
-      <c r="L46" s="32" t="s">
-        <v>695</v>
-      </c>
-      <c r="M46" s="32" t="s">
-        <v>697</v>
       </c>
       <c r="N46" s="32"/>
       <c r="O46" s="32" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="P46" s="32" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="Q46" s="32" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="R46" s="32" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="S46" s="39"/>
       <c r="V46" s="15"/>
@@ -7553,42 +7587,42 @@
       <c r="B48" s="25"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I48" s="26"/>
       <c r="J48" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="L48" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="M48" s="26" t="s">
         <v>706</v>
-      </c>
-      <c r="K48" s="26" t="s">
-        <v>708</v>
-      </c>
-      <c r="L48" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="M48" s="26" t="s">
-        <v>710</v>
       </c>
       <c r="N48" s="26"/>
       <c r="O48" s="26" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="P48" s="26" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="Q48" s="26" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="R48" s="26" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="S48" s="27"/>
       <c r="V48" s="15"/>
@@ -7601,46 +7635,46 @@
       <c r="D49" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="51" t="s">
+      <c r="E49" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="51" t="s">
+      <c r="F49" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="G49" s="51" t="s">
+      <c r="G49" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="H49" s="51" t="s">
+      <c r="H49" s="54" t="s">
         <v>154</v>
       </c>
       <c r="I49" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="51" t="s">
+      <c r="J49" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="K49" s="51" t="s">
+      <c r="K49" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="L49" s="51" t="s">
+      <c r="L49" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="M49" s="51" t="s">
+      <c r="M49" s="54" t="s">
         <v>175</v>
       </c>
       <c r="N49" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="O49" s="51" t="s">
+      <c r="O49" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="P49" s="51" t="s">
+      <c r="P49" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="Q49" s="51" t="s">
+      <c r="Q49" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="R49" s="51" t="s">
+      <c r="R49" s="54" t="s">
         <v>178</v>
       </c>
       <c r="S49" s="29"/>
@@ -7650,42 +7684,42 @@
       <c r="B50" s="30"/>
       <c r="D50" s="32"/>
       <c r="E50" s="32" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H50" s="32" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="I50" s="32"/>
       <c r="J50" s="32" t="s">
+        <v>703</v>
+      </c>
+      <c r="K50" s="32" t="s">
+        <v>705</v>
+      </c>
+      <c r="L50" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="M50" s="32" t="s">
         <v>707</v>
-      </c>
-      <c r="K50" s="32" t="s">
-        <v>709</v>
-      </c>
-      <c r="L50" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="M50" s="32" t="s">
-        <v>711</v>
       </c>
       <c r="N50" s="32"/>
       <c r="O50" s="32" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P50" s="32" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="Q50" s="32" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="R50" s="32" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="S50" s="39"/>
       <c r="V50" s="15"/>
@@ -7889,16 +7923,16 @@
     <row r="60" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="25"/>
       <c r="D60" s="26" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F60" s="26" t="s">
         <v>506</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H60" s="26" t="s">
         <v>502</v>
@@ -7908,26 +7942,26 @@
       </c>
       <c r="J60" s="26"/>
       <c r="K60" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="L60" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="M60" s="26" t="s">
         <v>719</v>
       </c>
-      <c r="L60" s="26" t="s">
+      <c r="N60" s="26" t="s">
         <v>721</v>
-      </c>
-      <c r="M60" s="26" t="s">
-        <v>723</v>
-      </c>
-      <c r="N60" s="26" t="s">
-        <v>725</v>
       </c>
       <c r="O60" s="26"/>
       <c r="P60" s="26" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="Q60" s="26" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="R60" s="26" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="S60" s="27"/>
       <c r="V60" s="15"/>
@@ -7937,49 +7971,49 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="E61" s="51" t="s">
+      <c r="E61" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="F61" s="51" t="s">
+      <c r="F61" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="G61" s="53" t="s">
+      <c r="G61" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="H61" s="51" t="s">
+      <c r="H61" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="I61" s="51" t="s">
+      <c r="I61" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J61" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K61" s="51" t="s">
+      <c r="K61" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="L61" s="51" t="s">
+      <c r="L61" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="M61" s="51" t="s">
+      <c r="M61" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="N61" s="51" t="s">
+      <c r="N61" s="54" t="s">
         <v>187</v>
       </c>
       <c r="O61" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="P61" s="51" t="s">
+      <c r="P61" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="Q61" s="51" t="s">
+      <c r="Q61" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="R61" s="51" t="s">
+      <c r="R61" s="54" t="s">
         <v>189</v>
       </c>
       <c r="S61" s="29"/>
@@ -7988,43 +8022,45 @@
     <row r="62" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="30"/>
       <c r="D62" s="32" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>625</v>
-      </c>
-      <c r="F62" s="32"/>
+        <v>621</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>1173</v>
+      </c>
       <c r="G62" s="32" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H62" s="32" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="I62" s="32" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="J62" s="32"/>
       <c r="K62" s="32" t="s">
+        <v>716</v>
+      </c>
+      <c r="L62" s="32" t="s">
+        <v>718</v>
+      </c>
+      <c r="M62" s="32" t="s">
         <v>720</v>
       </c>
-      <c r="L62" s="32" t="s">
+      <c r="N62" s="32" t="s">
         <v>722</v>
-      </c>
-      <c r="M62" s="32" t="s">
-        <v>724</v>
-      </c>
-      <c r="N62" s="32" t="s">
-        <v>726</v>
       </c>
       <c r="O62" s="32"/>
       <c r="P62" s="32" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="Q62" s="32" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="R62" s="32" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="S62" s="39"/>
       <c r="V62" s="15"/>
@@ -8052,43 +8088,43 @@
     <row r="64" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="25"/>
       <c r="D64" s="26" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E64" s="26"/>
       <c r="F64" s="26" t="s">
+        <v>727</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="H64" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="I64" s="26" t="s">
         <v>733</v>
-      </c>
-      <c r="H64" s="26" t="s">
-        <v>735</v>
-      </c>
-      <c r="I64" s="26" t="s">
-        <v>737</v>
       </c>
       <c r="J64" s="26"/>
       <c r="K64" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="L64" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="M64" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="L64" s="26" t="s">
+      <c r="N64" s="26" t="s">
         <v>741</v>
-      </c>
-      <c r="M64" s="26" t="s">
-        <v>743</v>
-      </c>
-      <c r="N64" s="26" t="s">
-        <v>745</v>
       </c>
       <c r="O64" s="26"/>
       <c r="P64" s="26" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="Q64" s="26" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="R64" s="26" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="S64" s="27"/>
       <c r="V64" s="15"/>
@@ -8098,49 +8134,49 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="51" t="s">
+      <c r="D65" s="54" t="s">
         <v>190</v>
       </c>
       <c r="E65" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="51" t="s">
+      <c r="F65" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="G65" s="53" t="s">
+      <c r="G65" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="H65" s="51" t="s">
+      <c r="H65" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="I65" s="51" t="s">
+      <c r="I65" s="54" t="s">
         <v>194</v>
       </c>
       <c r="J65" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="K65" s="51" t="s">
+      <c r="K65" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="L65" s="51" t="s">
+      <c r="L65" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="M65" s="51" t="s">
+      <c r="M65" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="N65" s="51" t="s">
+      <c r="N65" s="54" t="s">
         <v>197</v>
       </c>
       <c r="O65" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P65" s="51" t="s">
+      <c r="P65" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="Q65" s="51" t="s">
+      <c r="Q65" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="R65" s="51" t="s">
+      <c r="R65" s="54" t="s">
         <v>199</v>
       </c>
       <c r="S65" s="29"/>
@@ -8149,43 +8185,43 @@
     <row r="66" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="30"/>
       <c r="D66" s="32" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E66" s="32"/>
       <c r="F66" s="32" t="s">
+        <v>728</v>
+      </c>
+      <c r="G66" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="H66" s="32" t="s">
         <v>732</v>
       </c>
-      <c r="G66" s="32" t="s">
+      <c r="I66" s="32" t="s">
         <v>734</v>
-      </c>
-      <c r="H66" s="32" t="s">
-        <v>736</v>
-      </c>
-      <c r="I66" s="32" t="s">
-        <v>738</v>
       </c>
       <c r="J66" s="32"/>
       <c r="K66" s="32" t="s">
+        <v>736</v>
+      </c>
+      <c r="L66" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="M66" s="32" t="s">
         <v>740</v>
       </c>
-      <c r="L66" s="32" t="s">
+      <c r="N66" s="32" t="s">
         <v>742</v>
-      </c>
-      <c r="M66" s="32" t="s">
-        <v>744</v>
-      </c>
-      <c r="N66" s="32" t="s">
-        <v>746</v>
       </c>
       <c r="O66" s="32"/>
       <c r="P66" s="32" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="Q66" s="32" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="R66" s="32" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="S66" s="39"/>
       <c r="V66" s="15"/>
@@ -8213,43 +8249,43 @@
     <row r="68" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="25"/>
       <c r="D68" s="26" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="26" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="J68" s="26"/>
       <c r="K68" s="26" t="s">
         <v>508</v>
       </c>
       <c r="L68" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="M68" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="N68" s="26" t="s">
         <v>753</v>
-      </c>
-      <c r="M68" s="26" t="s">
-        <v>755</v>
-      </c>
-      <c r="N68" s="26" t="s">
-        <v>757</v>
       </c>
       <c r="O68" s="26"/>
       <c r="P68" s="26" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="Q68" s="26" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="R68" s="26" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="S68" s="27"/>
       <c r="V68" s="15"/>
@@ -8259,49 +8295,49 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="54" t="s">
         <v>200</v>
       </c>
       <c r="E69" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="F69" s="51" t="s">
+      <c r="F69" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="G69" s="53" t="s">
+      <c r="G69" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="H69" s="51" t="s">
+      <c r="H69" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="I69" s="51" t="s">
+      <c r="I69" s="54" t="s">
         <v>203</v>
       </c>
       <c r="J69" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K69" s="51" t="s">
+      <c r="K69" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="L69" s="51" t="s">
+      <c r="L69" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="M69" s="51" t="s">
+      <c r="M69" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="N69" s="51" t="s">
+      <c r="N69" s="54" t="s">
         <v>207</v>
       </c>
       <c r="O69" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="P69" s="51" t="s">
+      <c r="P69" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="Q69" s="51" t="s">
+      <c r="Q69" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="R69" s="51" t="s">
+      <c r="R69" s="54" t="s">
         <v>210</v>
       </c>
       <c r="S69" s="29"/>
@@ -8310,41 +8346,43 @@
     <row r="70" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="30"/>
       <c r="D70" s="32" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="32" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G70" s="32" t="s">
+        <v>746</v>
+      </c>
+      <c r="H70" s="32" t="s">
+        <v>720</v>
+      </c>
+      <c r="I70" s="32" t="s">
+        <v>748</v>
+      </c>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L70" s="32" t="s">
         <v>750</v>
       </c>
-      <c r="H70" s="32" t="s">
-        <v>724</v>
-      </c>
-      <c r="I70" s="32" t="s">
+      <c r="M70" s="32" t="s">
         <v>752</v>
       </c>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32" t="s">
+      <c r="N70" s="32" t="s">
         <v>754</v>
-      </c>
-      <c r="M70" s="32" t="s">
-        <v>756</v>
-      </c>
-      <c r="N70" s="32" t="s">
-        <v>758</v>
       </c>
       <c r="O70" s="32"/>
       <c r="P70" s="32" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="Q70" s="32" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="R70" s="32" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S70" s="39"/>
       <c r="V70" s="15"/>
@@ -8372,43 +8410,43 @@
     <row r="72" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="25"/>
       <c r="D72" s="26" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E72" s="26"/>
       <c r="F72" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="H72" s="26" t="s">
         <v>763</v>
       </c>
-      <c r="G72" s="26" t="s">
+      <c r="I72" s="26" t="s">
         <v>765</v>
-      </c>
-      <c r="H72" s="26" t="s">
-        <v>767</v>
-      </c>
-      <c r="I72" s="26" t="s">
-        <v>769</v>
       </c>
       <c r="J72" s="26"/>
       <c r="K72" s="26" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="L72" s="26" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="M72" s="26" t="s">
-        <v>582</v>
+        <v>1182</v>
       </c>
       <c r="N72" s="26" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O72" s="26"/>
       <c r="P72" s="26" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="Q72" s="26" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="R72" s="26" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="S72" s="27"/>
       <c r="V72" s="15"/>
@@ -8418,49 +8456,49 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="54" t="s">
         <v>210</v>
       </c>
       <c r="E73" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="51" t="s">
+      <c r="F73" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="G73" s="51" t="s">
+      <c r="G73" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="H73" s="51" t="s">
+      <c r="H73" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="I73" s="51" t="s">
+      <c r="I73" s="54" t="s">
         <v>214</v>
       </c>
       <c r="J73" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="K73" s="51" t="s">
+      <c r="K73" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="L73" s="51" t="s">
+      <c r="L73" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="M73" s="51" t="s">
+      <c r="M73" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="N73" s="51" t="s">
+      <c r="N73" s="54" t="s">
         <v>156</v>
       </c>
       <c r="O73" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P73" s="51" t="s">
+      <c r="P73" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="Q73" s="51" t="s">
+      <c r="Q73" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="R73" s="51" t="s">
+      <c r="R73" s="54" t="s">
         <v>217</v>
       </c>
       <c r="S73" s="29"/>
@@ -8469,43 +8507,43 @@
     <row r="74" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="30"/>
       <c r="D74" s="32" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E74" s="32"/>
       <c r="F74" s="32" t="s">
+        <v>760</v>
+      </c>
+      <c r="G74" s="32" t="s">
+        <v>762</v>
+      </c>
+      <c r="H74" s="32" t="s">
         <v>764</v>
       </c>
-      <c r="G74" s="32" t="s">
+      <c r="I74" s="32" t="s">
         <v>766</v>
-      </c>
-      <c r="H74" s="32" t="s">
-        <v>768</v>
-      </c>
-      <c r="I74" s="32" t="s">
-        <v>770</v>
       </c>
       <c r="J74" s="32"/>
       <c r="K74" s="32" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="L74" s="32" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="M74" s="32" t="s">
-        <v>583</v>
+        <v>1183</v>
       </c>
       <c r="N74" s="32" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="O74" s="32"/>
       <c r="P74" s="32" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="Q74" s="32" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="R74" s="32" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="S74" s="39"/>
       <c r="V74" s="15"/>
@@ -8533,43 +8571,43 @@
     <row r="76" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="25"/>
       <c r="D76" s="26" t="s">
+        <v>775</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>777</v>
+      </c>
+      <c r="F76" s="26" t="s">
         <v>779</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>781</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>783</v>
       </c>
       <c r="G76" s="26"/>
       <c r="H76" s="26" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="I76" s="26" t="s">
         <v>510</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="K76" s="26" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="L76" s="26"/>
       <c r="M76" s="26" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="N76" s="26" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="O76" s="26" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="P76" s="26" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="Q76" s="26"/>
       <c r="R76" s="26" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="S76" s="27"/>
       <c r="V76" s="15"/>
@@ -8579,49 +8617,49 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="51" t="s">
+      <c r="D77" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="E77" s="51" t="s">
+      <c r="E77" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="F77" s="51" t="s">
+      <c r="F77" s="54" t="s">
         <v>220</v>
       </c>
       <c r="G77" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H77" s="51" t="s">
+      <c r="H77" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="I77" s="51" t="s">
+      <c r="I77" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="J77" s="51" t="s">
+      <c r="J77" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="K77" s="51" t="s">
+      <c r="K77" s="54" t="s">
         <v>224</v>
       </c>
       <c r="L77" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M77" s="51" t="s">
+      <c r="M77" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="N77" s="51" t="s">
+      <c r="N77" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="O77" s="51" t="s">
+      <c r="O77" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="P77" s="51" t="s">
+      <c r="P77" s="54" t="s">
         <v>161</v>
       </c>
       <c r="Q77" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="R77" s="51" t="s">
+      <c r="R77" s="54" t="s">
         <v>30</v>
       </c>
       <c r="S77" s="29"/>
@@ -8630,41 +8668,43 @@
     <row r="78" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="30"/>
       <c r="D78" s="32" t="s">
+        <v>776</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="F78" s="32" t="s">
         <v>780</v>
-      </c>
-      <c r="E78" s="32" t="s">
-        <v>782</v>
-      </c>
-      <c r="F78" s="32" t="s">
-        <v>784</v>
       </c>
       <c r="G78" s="32"/>
       <c r="H78" s="32" t="s">
+        <v>782</v>
+      </c>
+      <c r="I78" s="32" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J78" s="32" t="s">
+        <v>784</v>
+      </c>
+      <c r="K78" s="32" t="s">
         <v>786</v>
-      </c>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="K78" s="32" t="s">
-        <v>790</v>
       </c>
       <c r="L78" s="32"/>
       <c r="M78" s="32" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="N78" s="32" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="O78" s="32" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="P78" s="32" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="Q78" s="32"/>
       <c r="R78" s="32" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="S78" s="39"/>
       <c r="V78" s="15"/>
@@ -8692,19 +8732,19 @@
     <row r="80" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="25"/>
       <c r="D80" s="26" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E80" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>795</v>
+      </c>
+      <c r="G80" s="26" t="s">
         <v>797</v>
       </c>
-      <c r="F80" s="26" t="s">
-        <v>799</v>
-      </c>
-      <c r="G80" s="26" t="s">
-        <v>801</v>
-      </c>
       <c r="H80" s="26" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I80" s="26"/>
       <c r="J80" s="26"/>
@@ -8724,19 +8764,19 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="51" t="s">
+      <c r="D81" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E81" s="51" t="s">
+      <c r="E81" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="F81" s="51" t="s">
+      <c r="F81" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="G81" s="51" t="s">
+      <c r="G81" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="H81" s="51" t="s">
+      <c r="H81" s="54" t="s">
         <v>160</v>
       </c>
       <c r="I81" s="51" t="s">
@@ -8761,19 +8801,19 @@
     <row r="82" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="30"/>
       <c r="D82" s="32" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E82" s="32" t="s">
+        <v>794</v>
+      </c>
+      <c r="F82" s="32" t="s">
+        <v>796</v>
+      </c>
+      <c r="G82" s="32" t="s">
         <v>798</v>
       </c>
-      <c r="F82" s="32" t="s">
-        <v>800</v>
-      </c>
-      <c r="G82" s="32" t="s">
-        <v>802</v>
-      </c>
       <c r="H82" s="32" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I82" s="32"/>
       <c r="J82" s="32"/>
@@ -8898,45 +8938,45 @@
     <row r="88" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="25"/>
       <c r="D88" s="26" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H88" s="26" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="I88" s="26" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J88" s="26"/>
       <c r="K88" s="26" t="s">
+        <v>803</v>
+      </c>
+      <c r="L88" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="M88" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="N88" s="26" t="s">
         <v>807</v>
-      </c>
-      <c r="L88" s="26" t="s">
-        <v>809</v>
-      </c>
-      <c r="M88" s="26" t="s">
-        <v>723</v>
-      </c>
-      <c r="N88" s="26" t="s">
-        <v>811</v>
       </c>
       <c r="O88" s="26"/>
       <c r="P88" s="26" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="Q88" s="26" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="R88" s="26" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="S88" s="27"/>
       <c r="V88" s="15"/>
@@ -8946,49 +8986,49 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="51" t="s">
+      <c r="D89" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E89" s="51" t="s">
+      <c r="E89" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="F89" s="51" t="s">
+      <c r="F89" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="G89" s="51" t="s">
+      <c r="G89" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="H89" s="51" t="s">
+      <c r="H89" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="I89" s="51" t="s">
+      <c r="I89" s="54" t="s">
         <v>43</v>
       </c>
       <c r="J89" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K89" s="51" t="s">
+      <c r="K89" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="L89" s="51" t="s">
+      <c r="L89" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="M89" s="51" t="s">
+      <c r="M89" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="N89" s="51" t="s">
+      <c r="N89" s="54" t="s">
         <v>234</v>
       </c>
       <c r="O89" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P89" s="51" t="s">
+      <c r="P89" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="Q89" s="51" t="s">
+      <c r="Q89" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="R89" s="51" t="s">
+      <c r="R89" s="54" t="s">
         <v>236</v>
       </c>
       <c r="S89" s="29"/>
@@ -8997,45 +9037,45 @@
     <row r="90" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="30"/>
       <c r="D90" s="32" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F90" s="32" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H90" s="32" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="I90" s="32" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J90" s="32"/>
       <c r="K90" s="32" t="s">
+        <v>804</v>
+      </c>
+      <c r="L90" s="32" t="s">
+        <v>806</v>
+      </c>
+      <c r="M90" s="32" t="s">
+        <v>720</v>
+      </c>
+      <c r="N90" s="32" t="s">
         <v>808</v>
-      </c>
-      <c r="L90" s="32" t="s">
-        <v>810</v>
-      </c>
-      <c r="M90" s="32" t="s">
-        <v>724</v>
-      </c>
-      <c r="N90" s="32" t="s">
-        <v>812</v>
       </c>
       <c r="O90" s="32"/>
       <c r="P90" s="32" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="Q90" s="32" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="R90" s="32" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="S90" s="39"/>
       <c r="V90" s="15"/>
@@ -9063,43 +9103,43 @@
     <row r="92" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="25"/>
       <c r="D92" s="26" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E92" s="26"/>
       <c r="F92" s="26" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="J92" s="26"/>
       <c r="K92" s="26" t="s">
+        <v>819</v>
+      </c>
+      <c r="L92" s="26" t="s">
+        <v>821</v>
+      </c>
+      <c r="M92" s="26" t="s">
         <v>823</v>
       </c>
-      <c r="L92" s="26" t="s">
+      <c r="N92" s="26" t="s">
         <v>825</v>
-      </c>
-      <c r="M92" s="26" t="s">
-        <v>827</v>
-      </c>
-      <c r="N92" s="26" t="s">
-        <v>829</v>
       </c>
       <c r="O92" s="26"/>
       <c r="P92" s="26" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="Q92" s="26" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="R92" s="26" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="S92" s="27"/>
       <c r="V92" s="15"/>
@@ -9109,49 +9149,49 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="51" t="s">
+      <c r="D93" s="54" t="s">
         <v>237</v>
       </c>
       <c r="E93" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="51" t="s">
+      <c r="F93" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G93" s="51" t="s">
+      <c r="G93" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="H93" s="51" t="s">
+      <c r="H93" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="I93" s="51" t="s">
+      <c r="I93" s="54" t="s">
         <v>239</v>
       </c>
       <c r="J93" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="K93" s="51" t="s">
+      <c r="K93" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="L93" s="51" t="s">
+      <c r="L93" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="M93" s="51" t="s">
+      <c r="M93" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="N93" s="51" t="s">
+      <c r="N93" s="54" t="s">
         <v>243</v>
       </c>
       <c r="O93" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P93" s="51" t="s">
+      <c r="P93" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="Q93" s="51" t="s">
+      <c r="Q93" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="R93" s="51" t="s">
+      <c r="R93" s="54" t="s">
         <v>246</v>
       </c>
       <c r="S93" s="29"/>
@@ -9160,43 +9200,43 @@
     <row r="94" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="30"/>
       <c r="D94" s="32" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="32" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="H94" s="32" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="I94" s="32" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="J94" s="32"/>
       <c r="K94" s="32" t="s">
+        <v>820</v>
+      </c>
+      <c r="L94" s="32" t="s">
+        <v>822</v>
+      </c>
+      <c r="M94" s="32" t="s">
         <v>824</v>
       </c>
-      <c r="L94" s="32" t="s">
+      <c r="N94" s="32" t="s">
         <v>826</v>
-      </c>
-      <c r="M94" s="32" t="s">
-        <v>828</v>
-      </c>
-      <c r="N94" s="32" t="s">
-        <v>830</v>
       </c>
       <c r="O94" s="32"/>
       <c r="P94" s="32" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="Q94" s="32" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="R94" s="32" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="S94" s="39"/>
       <c r="V94" s="15"/>
@@ -9224,20 +9264,20 @@
     <row r="96" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="25"/>
       <c r="D96" s="26" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E96" s="26"/>
       <c r="F96" s="26" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="H96" s="26" t="s">
         <v>512</v>
       </c>
       <c r="I96" s="26" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="J96" s="26"/>
       <c r="K96" s="26" t="s">
@@ -9247,20 +9287,20 @@
         <v>514</v>
       </c>
       <c r="M96" s="26" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="N96" s="26" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="O96" s="26"/>
       <c r="P96" s="26" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="Q96" s="26" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="R96" s="26" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="S96" s="27"/>
       <c r="V96" s="15"/>
@@ -9270,49 +9310,49 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="51" t="s">
+      <c r="D97" s="54" t="s">
         <v>247</v>
       </c>
       <c r="E97" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F97" s="51" t="s">
+      <c r="F97" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G97" s="53" t="s">
+      <c r="G97" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="H97" s="51" t="s">
+      <c r="H97" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="I97" s="51" t="s">
+      <c r="I97" s="54" t="s">
         <v>251</v>
       </c>
       <c r="J97" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K97" s="51" t="s">
+      <c r="K97" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="L97" s="51" t="s">
+      <c r="L97" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="M97" s="51" t="s">
+      <c r="M97" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="N97" s="51" t="s">
+      <c r="N97" s="54" t="s">
         <v>253</v>
       </c>
       <c r="O97" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="P97" s="51" t="s">
+      <c r="P97" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="Q97" s="51" t="s">
+      <c r="Q97" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="R97" s="51" t="s">
+      <c r="R97" s="54" t="s">
         <v>139</v>
       </c>
       <c r="S97" s="29"/>
@@ -9321,37 +9361,43 @@
     <row r="98" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="30"/>
       <c r="D98" s="32" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E98" s="32"/>
       <c r="F98" s="32" t="s">
+        <v>834</v>
+      </c>
+      <c r="G98" s="32" t="s">
+        <v>836</v>
+      </c>
+      <c r="H98" s="32" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I98" s="32" t="s">
+        <v>806</v>
+      </c>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32" t="s">
+        <v>1177</v>
+      </c>
+      <c r="L98" s="32" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M98" s="32" t="s">
         <v>838</v>
       </c>
-      <c r="G98" s="32" t="s">
-        <v>840</v>
-      </c>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32" t="s">
-        <v>810</v>
-      </c>
-      <c r="J98" s="32"/>
-      <c r="K98" s="32"/>
-      <c r="L98" s="32"/>
-      <c r="M98" s="32" t="s">
-        <v>842</v>
-      </c>
       <c r="N98" s="32" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="O98" s="32"/>
       <c r="P98" s="32" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="Q98" s="32" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="R98" s="32" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="S98" s="39"/>
       <c r="V98" s="15"/>
@@ -9379,43 +9425,43 @@
     <row r="100" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="25"/>
       <c r="D100" s="26" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="G100" s="26"/>
       <c r="H100" s="26" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="I100" s="26" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="K100" s="26" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="L100" s="26"/>
       <c r="M100" s="26" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="N100" s="26" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="O100" s="26" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="P100" s="26" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="Q100" s="26"/>
       <c r="R100" s="26" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="S100" s="27"/>
       <c r="V100" s="15"/>
@@ -9425,49 +9471,49 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="51" t="s">
+      <c r="D101" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="E101" s="51" t="s">
+      <c r="E101" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F101" s="51" t="s">
+      <c r="F101" s="54" t="s">
         <v>194</v>
       </c>
       <c r="G101" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H101" s="51" t="s">
+      <c r="H101" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="I101" s="51" t="s">
+      <c r="I101" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="J101" s="51" t="s">
+      <c r="J101" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="K101" s="51" t="s">
+      <c r="K101" s="54" t="s">
         <v>257</v>
       </c>
       <c r="L101" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M101" s="51" t="s">
+      <c r="M101" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="N101" s="51" t="s">
+      <c r="N101" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="O101" s="51" t="s">
+      <c r="O101" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="P101" s="51" t="s">
+      <c r="P101" s="54" t="s">
         <v>260</v>
       </c>
       <c r="Q101" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="R101" s="51" t="s">
+      <c r="R101" s="54" t="s">
         <v>261</v>
       </c>
       <c r="S101" s="29"/>
@@ -9476,43 +9522,43 @@
     <row r="102" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="30"/>
       <c r="D102" s="32" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="E102" s="32" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F102" s="32" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G102" s="32"/>
       <c r="H102" s="32" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="I102" s="32" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="J102" s="32" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K102" s="32" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="L102" s="32"/>
       <c r="M102" s="32" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="N102" s="32" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="O102" s="32" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="P102" s="32" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="Q102" s="32"/>
       <c r="R102" s="32" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="S102" s="39"/>
       <c r="V102" s="15"/>
@@ -9540,43 +9586,43 @@
     <row r="104" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="25"/>
       <c r="D104" s="26" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F104" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G104" s="26"/>
       <c r="H104" s="26" t="s">
+        <v>851</v>
+      </c>
+      <c r="I104" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="J104" s="26" t="s">
         <v>855</v>
       </c>
-      <c r="I104" s="26" t="s">
+      <c r="K104" s="26" t="s">
         <v>857</v>
-      </c>
-      <c r="J104" s="26" t="s">
-        <v>859</v>
-      </c>
-      <c r="K104" s="26" t="s">
-        <v>861</v>
       </c>
       <c r="L104" s="26"/>
       <c r="M104" s="26" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="N104" s="26" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="O104" s="26" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="P104" s="26" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="Q104" s="26"/>
       <c r="R104" s="26" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="S104" s="27"/>
       <c r="V104" s="15"/>
@@ -9586,49 +9632,49 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="51" t="s">
+      <c r="D105" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="E105" s="51" t="s">
+      <c r="E105" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="F105" s="51" t="s">
+      <c r="F105" s="54" t="s">
         <v>264</v>
       </c>
       <c r="G105" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H105" s="51" t="s">
+      <c r="H105" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="I105" s="51" t="s">
+      <c r="I105" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="J105" s="51" t="s">
+      <c r="J105" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="K105" s="51" t="s">
+      <c r="K105" s="54" t="s">
         <v>268</v>
       </c>
       <c r="L105" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M105" s="51" t="s">
+      <c r="M105" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="N105" s="51" t="s">
+      <c r="N105" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="O105" s="54" t="s">
+      <c r="O105" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="P105" s="51" t="s">
+      <c r="P105" s="54" t="s">
         <v>42</v>
       </c>
       <c r="Q105" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R105" s="51" t="s">
+      <c r="R105" s="54" t="s">
         <v>215</v>
       </c>
       <c r="S105" s="29"/>
@@ -9637,43 +9683,43 @@
     <row r="106" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="30"/>
       <c r="D106" s="32" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="F106" s="32" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G106" s="32"/>
       <c r="H106" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="I106" s="32" t="s">
+        <v>854</v>
+      </c>
+      <c r="J106" s="32" t="s">
         <v>856</v>
       </c>
-      <c r="I106" s="32" t="s">
+      <c r="K106" s="32" t="s">
         <v>858</v>
-      </c>
-      <c r="J106" s="32" t="s">
-        <v>860</v>
-      </c>
-      <c r="K106" s="32" t="s">
-        <v>862</v>
       </c>
       <c r="L106" s="32"/>
       <c r="M106" s="32" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="N106" s="32" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="O106" s="32" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="P106" s="32" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="Q106" s="32"/>
       <c r="R106" s="32" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="S106" s="39"/>
       <c r="V106" s="15"/>
@@ -9701,45 +9747,45 @@
     <row r="108" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="25"/>
       <c r="D108" s="26" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>582</v>
+        <v>1182</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G108" s="26"/>
       <c r="H108" s="26" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I108" s="26" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="J108" s="26" t="s">
+        <v>861</v>
+      </c>
+      <c r="K108" s="26" t="s">
+        <v>863</v>
+      </c>
+      <c r="L108" s="26" t="s">
         <v>865</v>
       </c>
-      <c r="K108" s="26" t="s">
+      <c r="M108" s="26" t="s">
         <v>867</v>
-      </c>
-      <c r="L108" s="26" t="s">
-        <v>869</v>
-      </c>
-      <c r="M108" s="26" t="s">
-        <v>871</v>
       </c>
       <c r="N108" s="26"/>
       <c r="O108" s="26" t="s">
+        <v>869</v>
+      </c>
+      <c r="P108" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q108" s="26" t="s">
+        <v>871</v>
+      </c>
+      <c r="R108" s="26" t="s">
         <v>873</v>
-      </c>
-      <c r="P108" s="26" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q108" s="26" t="s">
-        <v>875</v>
-      </c>
-      <c r="R108" s="26" t="s">
-        <v>877</v>
       </c>
       <c r="S108" s="27"/>
       <c r="V108" s="15"/>
@@ -9749,49 +9795,49 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="51" t="s">
+      <c r="D109" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="E109" s="51" t="s">
+      <c r="E109" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F109" s="51" t="s">
+      <c r="F109" s="54" t="s">
         <v>156</v>
       </c>
       <c r="G109" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H109" s="51" t="s">
+      <c r="H109" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="I109" s="51" t="s">
+      <c r="I109" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="J109" s="51" t="s">
+      <c r="J109" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="K109" s="51" t="s">
+      <c r="K109" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="L109" s="51" t="s">
+      <c r="L109" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="M109" s="51" t="s">
+      <c r="M109" s="54" t="s">
         <v>274</v>
       </c>
       <c r="N109" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="O109" s="51" t="s">
+      <c r="O109" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="P109" s="51" t="s">
+      <c r="P109" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="Q109" s="51" t="s">
+      <c r="Q109" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="R109" s="51" t="s">
+      <c r="R109" s="54" t="s">
         <v>278</v>
       </c>
       <c r="S109" s="29"/>
@@ -9800,45 +9846,45 @@
     <row r="110" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="30"/>
       <c r="D110" s="32" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>583</v>
+        <v>1183</v>
       </c>
       <c r="F110" s="32" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G110" s="32"/>
       <c r="H110" s="32" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="I110" s="32" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="J110" s="32" t="s">
+        <v>862</v>
+      </c>
+      <c r="K110" s="32" t="s">
+        <v>864</v>
+      </c>
+      <c r="L110" s="32" t="s">
         <v>866</v>
       </c>
-      <c r="K110" s="32" t="s">
+      <c r="M110" s="32" t="s">
         <v>868</v>
-      </c>
-      <c r="L110" s="32" t="s">
-        <v>870</v>
-      </c>
-      <c r="M110" s="32" t="s">
-        <v>872</v>
       </c>
       <c r="N110" s="32"/>
       <c r="O110" s="32" t="s">
+        <v>870</v>
+      </c>
+      <c r="P110" s="32" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q110" s="32" t="s">
+        <v>872</v>
+      </c>
+      <c r="R110" s="32" t="s">
         <v>874</v>
-      </c>
-      <c r="P110" s="32" t="s">
-        <v>717</v>
-      </c>
-      <c r="Q110" s="32" t="s">
-        <v>876</v>
-      </c>
-      <c r="R110" s="32" t="s">
-        <v>878</v>
       </c>
       <c r="S110" s="39"/>
       <c r="V110" s="15"/>
@@ -9867,35 +9913,35 @@
       <c r="B112" s="25"/>
       <c r="D112" s="26"/>
       <c r="E112" s="26" t="s">
+        <v>875</v>
+      </c>
+      <c r="F112" s="26" t="s">
+        <v>877</v>
+      </c>
+      <c r="G112" s="26" t="s">
         <v>879</v>
       </c>
-      <c r="F112" s="26" t="s">
-        <v>881</v>
-      </c>
-      <c r="G112" s="26" t="s">
-        <v>883</v>
-      </c>
       <c r="H112" s="26" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I112" s="26"/>
       <c r="J112" s="26" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="K112" s="26" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="L112" s="26" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="M112" s="26" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="N112" s="26" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="O112" s="26" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="P112" s="26"/>
       <c r="Q112" s="26"/>
@@ -9911,37 +9957,37 @@
       <c r="D113" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E113" s="51" t="s">
+      <c r="E113" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="F113" s="51" t="s">
+      <c r="F113" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="G113" s="51" t="s">
+      <c r="G113" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="H113" s="51" t="s">
+      <c r="H113" s="54" t="s">
         <v>188</v>
       </c>
       <c r="I113" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J113" s="51" t="s">
+      <c r="J113" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="K113" s="51" t="s">
+      <c r="K113" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="L113" s="51" t="s">
+      <c r="L113" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="M113" s="51" t="s">
+      <c r="M113" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="N113" s="51" t="s">
+      <c r="N113" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="O113" s="54" t="s">
+      <c r="O113" s="59" t="s">
         <v>160</v>
       </c>
       <c r="P113" s="51" t="s">
@@ -9960,35 +10006,35 @@
       <c r="B114" s="30"/>
       <c r="D114" s="32"/>
       <c r="E114" s="32" t="s">
+        <v>876</v>
+      </c>
+      <c r="F114" s="32" t="s">
+        <v>878</v>
+      </c>
+      <c r="G114" s="32" t="s">
         <v>880</v>
       </c>
-      <c r="F114" s="32" t="s">
-        <v>882</v>
-      </c>
-      <c r="G114" s="32" t="s">
-        <v>884</v>
-      </c>
       <c r="H114" s="32" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="I114" s="32"/>
       <c r="J114" s="32" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="K114" s="32" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="L114" s="32" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="M114" s="32" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="N114" s="32" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="O114" s="32" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="P114" s="32"/>
       <c r="Q114" s="32"/>
@@ -10106,45 +10152,45 @@
     <row r="120" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="25"/>
       <c r="D120" s="26" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F120" s="26"/>
       <c r="G120" s="26" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H120" s="26" t="s">
+        <v>887</v>
+      </c>
+      <c r="I120" s="26" t="s">
+        <v>889</v>
+      </c>
+      <c r="J120" s="26" t="s">
         <v>891</v>
       </c>
-      <c r="I120" s="26" t="s">
-        <v>893</v>
-      </c>
-      <c r="J120" s="26" t="s">
-        <v>895</v>
-      </c>
       <c r="K120" s="26" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="L120" s="26" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M120" s="26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="N120" s="26" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="O120" s="26"/>
       <c r="P120" s="26" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="Q120" s="26" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="R120" s="26" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="S120" s="27"/>
       <c r="V120" s="15"/>
@@ -10154,49 +10200,49 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="51" t="s">
+      <c r="D121" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="E121" s="51" t="s">
+      <c r="E121" s="54" t="s">
         <v>128</v>
       </c>
       <c r="F121" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="G121" s="53" t="s">
+      <c r="G121" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="H121" s="51" t="s">
+      <c r="H121" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="I121" s="51" t="s">
+      <c r="I121" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="J121" s="51" t="s">
+      <c r="J121" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="K121" s="51" t="s">
+      <c r="K121" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="L121" s="51" t="s">
+      <c r="L121" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="M121" s="51" t="s">
+      <c r="M121" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="N121" s="51" t="s">
+      <c r="N121" s="54" t="s">
         <v>271</v>
       </c>
       <c r="O121" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P121" s="51" t="s">
+      <c r="P121" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="Q121" s="51" t="s">
+      <c r="Q121" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="R121" s="51" t="s">
+      <c r="R121" s="54" t="s">
         <v>290</v>
       </c>
       <c r="S121" s="29"/>
@@ -10205,45 +10251,45 @@
     <row r="122" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="30"/>
       <c r="D122" s="32" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E122" s="32" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F122" s="32"/>
       <c r="G122" s="32" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H122" s="32" t="s">
+        <v>888</v>
+      </c>
+      <c r="I122" s="32" t="s">
+        <v>890</v>
+      </c>
+      <c r="J122" s="32" t="s">
         <v>892</v>
       </c>
-      <c r="I122" s="32" t="s">
-        <v>894</v>
-      </c>
-      <c r="J122" s="32" t="s">
-        <v>896</v>
-      </c>
       <c r="K122" s="32" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L122" s="32" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M122" s="32" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="N122" s="32" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="O122" s="32"/>
       <c r="P122" s="32" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="Q122" s="32" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="R122" s="32" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="S122" s="39"/>
       <c r="V122" s="15"/>
@@ -10271,43 +10317,43 @@
     <row r="124" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="25"/>
       <c r="D124" s="26" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F124" s="26" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="G124" s="26"/>
       <c r="H124" s="26" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I124" s="26" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="J124" s="26"/>
       <c r="K124" s="26" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="L124" s="26" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="M124" s="26" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="N124" s="26" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="O124" s="26"/>
       <c r="P124" s="26" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Q124" s="26" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="R124" s="26" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="S124" s="27"/>
       <c r="V124" s="15"/>
@@ -10317,49 +10363,49 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="51" t="s">
+      <c r="D125" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="E125" s="51" t="s">
+      <c r="E125" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="F125" s="51" t="s">
+      <c r="F125" s="54" t="s">
         <v>291</v>
       </c>
       <c r="G125" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H125" s="51" t="s">
+      <c r="H125" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="I125" s="51" t="s">
+      <c r="I125" s="54" t="s">
         <v>292</v>
       </c>
       <c r="J125" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="K125" s="51" t="s">
+      <c r="K125" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="L125" s="51" t="s">
+      <c r="L125" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="M125" s="51" t="s">
+      <c r="M125" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="N125" s="51" t="s">
+      <c r="N125" s="54" t="s">
         <v>282</v>
       </c>
       <c r="O125" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P125" s="51" t="s">
+      <c r="P125" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="Q125" s="51" t="s">
+      <c r="Q125" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="R125" s="51" t="s">
+      <c r="R125" s="54" t="s">
         <v>293</v>
       </c>
       <c r="S125" s="29"/>
@@ -10368,43 +10414,43 @@
     <row r="126" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="30"/>
       <c r="D126" s="32" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E126" s="32" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F126" s="32" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G126" s="32"/>
       <c r="H126" s="32" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I126" s="32" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="J126" s="32"/>
       <c r="K126" s="32" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="L126" s="32" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M126" s="32" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="N126" s="32" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="O126" s="32"/>
       <c r="P126" s="32" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="Q126" s="32" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="R126" s="32" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="S126" s="39"/>
       <c r="V126" s="15"/>
@@ -10432,43 +10478,43 @@
     <row r="128" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B128" s="25"/>
       <c r="D128" s="26" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E128" s="26"/>
       <c r="F128" s="26" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="G128" s="26" t="s">
+        <v>901</v>
+      </c>
+      <c r="H128" s="26" t="s">
+        <v>903</v>
+      </c>
+      <c r="I128" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="J128" s="26" t="s">
         <v>905</v>
-      </c>
-      <c r="H128" s="26" t="s">
-        <v>907</v>
-      </c>
-      <c r="I128" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="J128" s="26" t="s">
-        <v>909</v>
       </c>
       <c r="K128" s="26"/>
       <c r="L128" s="26" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="M128" s="26" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="N128" s="26" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="O128" s="26" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="P128" s="26"/>
       <c r="Q128" s="26" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="R128" s="26" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="S128" s="27"/>
       <c r="V128" s="15"/>
@@ -10478,49 +10524,49 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="51" t="s">
+      <c r="D129" s="54" t="s">
         <v>229</v>
       </c>
       <c r="E129" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F129" s="51" t="s">
+      <c r="F129" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="G129" s="51" t="s">
+      <c r="G129" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="H129" s="51" t="s">
+      <c r="H129" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="I129" s="51" t="s">
+      <c r="I129" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="J129" s="51" t="s">
+      <c r="J129" s="54" t="s">
         <v>33</v>
       </c>
       <c r="K129" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="L129" s="55" t="s">
+      <c r="L129" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="M129" s="51" t="s">
+      <c r="M129" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="N129" s="51" t="s">
+      <c r="N129" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="O129" s="51" t="s">
+      <c r="O129" s="54" t="s">
         <v>297</v>
       </c>
       <c r="P129" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="Q129" s="51" t="s">
+      <c r="Q129" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="R129" s="51" t="s">
+      <c r="R129" s="54" t="s">
         <v>140</v>
       </c>
       <c r="S129" s="29"/>
@@ -10529,43 +10575,43 @@
     <row r="130" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="30"/>
       <c r="D130" s="32" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E130" s="32"/>
       <c r="F130" s="32" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G130" s="32" t="s">
+        <v>902</v>
+      </c>
+      <c r="H130" s="32" t="s">
+        <v>904</v>
+      </c>
+      <c r="I130" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="J130" s="32" t="s">
         <v>906</v>
-      </c>
-      <c r="H130" s="32" t="s">
-        <v>908</v>
-      </c>
-      <c r="I130" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="J130" s="32" t="s">
-        <v>910</v>
       </c>
       <c r="K130" s="32"/>
       <c r="L130" s="32" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="M130" s="32" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="N130" s="32" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="O130" s="32" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="P130" s="32"/>
       <c r="Q130" s="32" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="R130" s="32" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="S130" s="39"/>
       <c r="V130" s="15"/>
@@ -10593,43 +10639,43 @@
     <row r="132" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="25"/>
       <c r="D132" s="26" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G132" s="26"/>
       <c r="H132" s="26" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I132" s="26" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="J132" s="26" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="K132" s="26" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="L132" s="26"/>
       <c r="M132" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="N132" s="26" t="s">
+        <v>913</v>
+      </c>
+      <c r="O132" s="26" t="s">
         <v>915</v>
       </c>
-      <c r="N132" s="26" t="s">
-        <v>917</v>
-      </c>
-      <c r="O132" s="26" t="s">
-        <v>919</v>
-      </c>
       <c r="P132" s="26" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="Q132" s="26"/>
       <c r="R132" s="26" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="S132" s="27"/>
       <c r="V132" s="15"/>
@@ -10639,49 +10685,49 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="51" t="s">
+      <c r="D133" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="E133" s="51" t="s">
+      <c r="E133" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="F133" s="51" t="s">
+      <c r="F133" s="54" t="s">
         <v>136</v>
       </c>
       <c r="G133" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H133" s="51" t="s">
+      <c r="H133" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="I133" s="51" t="s">
+      <c r="I133" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="J133" s="51" t="s">
+      <c r="J133" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="K133" s="51" t="s">
+      <c r="K133" s="54" t="s">
         <v>299</v>
       </c>
       <c r="L133" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="M133" s="51" t="s">
+      <c r="M133" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="N133" s="51" t="s">
+      <c r="N133" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="O133" s="51" t="s">
+      <c r="O133" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="P133" s="51" t="s">
+      <c r="P133" s="54" t="s">
         <v>221</v>
       </c>
       <c r="Q133" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="R133" s="51" t="s">
+      <c r="R133" s="54" t="s">
         <v>302</v>
       </c>
       <c r="S133" s="29"/>
@@ -10690,43 +10736,43 @@
     <row r="134" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="30"/>
       <c r="D134" s="32" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F134" s="32" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="G134" s="32"/>
       <c r="H134" s="32" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="I134" s="32" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="J134" s="32" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="K134" s="32" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="L134" s="32"/>
       <c r="M134" s="32" t="s">
+        <v>912</v>
+      </c>
+      <c r="N134" s="32" t="s">
+        <v>914</v>
+      </c>
+      <c r="O134" s="32" t="s">
         <v>916</v>
       </c>
-      <c r="N134" s="32" t="s">
-        <v>918</v>
-      </c>
-      <c r="O134" s="32" t="s">
-        <v>920</v>
-      </c>
       <c r="P134" s="32" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="Q134" s="32"/>
       <c r="R134" s="32" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="S134" s="39"/>
       <c r="V134" s="15"/>
@@ -10754,42 +10800,42 @@
     <row r="136" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B136" s="25"/>
       <c r="D136" s="26" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="H136" s="26" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I136" s="26" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J136" s="26" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="K136" s="26" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="L136" s="26" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="M136" s="26" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="N136" s="26"/>
       <c r="O136" s="26" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="P136" s="26" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="Q136" s="26" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R136" s="26"/>
       <c r="S136" s="27"/>
@@ -10800,46 +10846,46 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="51" t="s">
+      <c r="D137" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="E137" s="51" t="s">
+      <c r="E137" s="54" t="s">
         <v>221</v>
       </c>
       <c r="F137" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="G137" s="51" t="s">
+      <c r="G137" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="H137" s="51" t="s">
+      <c r="H137" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="I137" s="51" t="s">
+      <c r="I137" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="J137" s="51" t="s">
+      <c r="J137" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="K137" s="51" t="s">
+      <c r="K137" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="L137" s="51" t="s">
+      <c r="L137" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="M137" s="51" t="s">
+      <c r="M137" s="54" t="s">
         <v>304</v>
       </c>
       <c r="N137" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="O137" s="51" t="s">
+      <c r="O137" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="P137" s="51" t="s">
+      <c r="P137" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="Q137" s="51" t="s">
+      <c r="Q137" s="54" t="s">
         <v>306</v>
       </c>
       <c r="R137" s="51" t="s">
@@ -10851,42 +10897,42 @@
     <row r="138" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="30"/>
       <c r="D138" s="32" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="E138" s="32" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F138" s="32"/>
       <c r="G138" s="32" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H138" s="32" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="I138" s="32" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J138" s="32" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="K138" s="32" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="L138" s="32" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="M138" s="32" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="N138" s="32"/>
       <c r="O138" s="32" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="P138" s="32" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="Q138" s="32" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="R138" s="32"/>
       <c r="S138" s="39"/>
@@ -10916,44 +10962,44 @@
       <c r="B140" s="25"/>
       <c r="D140" s="26"/>
       <c r="E140" s="26" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="F140" s="26" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="G140" s="26" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="H140" s="26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="I140" s="26" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="J140" s="26" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K140" s="26" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="L140" s="26"/>
       <c r="M140" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="N140" s="26" t="s">
+        <v>811</v>
+      </c>
+      <c r="O140" s="26" t="s">
+        <v>809</v>
+      </c>
+      <c r="P140" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q140" s="26" t="s">
         <v>859</v>
       </c>
-      <c r="N140" s="26" t="s">
-        <v>815</v>
-      </c>
-      <c r="O140" s="26" t="s">
-        <v>813</v>
-      </c>
-      <c r="P140" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q140" s="26" t="s">
-        <v>863</v>
-      </c>
       <c r="R140" s="26" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="S140" s="27"/>
       <c r="V140" s="15"/>
@@ -10966,46 +11012,46 @@
       <c r="D141" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="E141" s="51" t="s">
+      <c r="E141" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="F141" s="51" t="s">
+      <c r="F141" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="G141" s="53" t="s">
+      <c r="G141" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="H141" s="51" t="s">
+      <c r="H141" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="I141" s="51" t="s">
+      <c r="I141" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="J141" s="51" t="s">
+      <c r="J141" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="K141" s="51" t="s">
+      <c r="K141" s="54" t="s">
         <v>221</v>
       </c>
       <c r="L141" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M141" s="51" t="s">
+      <c r="M141" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="N141" s="51" t="s">
+      <c r="N141" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="O141" s="51" t="s">
+      <c r="O141" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="P141" s="51" t="s">
+      <c r="P141" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="Q141" s="51" t="s">
+      <c r="Q141" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="R141" s="51" t="s">
+      <c r="R141" s="54" t="s">
         <v>228</v>
       </c>
       <c r="S141" s="29"/>
@@ -11015,44 +11061,44 @@
       <c r="B142" s="30"/>
       <c r="D142" s="32"/>
       <c r="E142" s="32" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="F142" s="32" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="H142" s="32" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="I142" s="32" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="J142" s="32" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="K142" s="32" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="L142" s="32"/>
       <c r="M142" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="N142" s="32" t="s">
+        <v>812</v>
+      </c>
+      <c r="O142" s="32" t="s">
+        <v>810</v>
+      </c>
+      <c r="P142" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q142" s="32" t="s">
         <v>860</v>
       </c>
-      <c r="N142" s="32" t="s">
-        <v>816</v>
-      </c>
-      <c r="O142" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="P142" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q142" s="32" t="s">
-        <v>864</v>
-      </c>
       <c r="R142" s="32" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="S142" s="39"/>
       <c r="V142" s="15"/>
@@ -11080,11 +11126,11 @@
     <row r="144" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B144" s="25"/>
       <c r="D144" s="26" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E144" s="26"/>
       <c r="F144" s="26" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="G144" s="26"/>
       <c r="H144" s="26" t="s">
@@ -11092,26 +11138,26 @@
       </c>
       <c r="I144" s="26"/>
       <c r="J144" s="26" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="K144" s="26" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="L144" s="26" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M144" s="26"/>
       <c r="N144" s="26" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="O144" s="26" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="P144" s="26" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="Q144" s="26" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="R144" s="26"/>
       <c r="S144" s="27"/>
@@ -11122,46 +11168,46 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="51" t="s">
+      <c r="D145" s="54" t="s">
         <v>269</v>
       </c>
       <c r="E145" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="F145" s="51" t="s">
+      <c r="F145" s="54" t="s">
         <v>312</v>
       </c>
       <c r="G145" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="H145" s="51" t="s">
+      <c r="H145" s="54" t="s">
         <v>313</v>
       </c>
       <c r="I145" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="J145" s="51" t="s">
+      <c r="J145" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="K145" s="51" t="s">
+      <c r="K145" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="L145" s="51" t="s">
+      <c r="L145" s="54" t="s">
         <v>45</v>
       </c>
       <c r="M145" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="N145" s="51" t="s">
+      <c r="N145" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="O145" s="51" t="s">
+      <c r="O145" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="P145" s="51" t="s">
+      <c r="P145" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="Q145" s="51" t="s">
+      <c r="Q145" s="54" t="s">
         <v>317</v>
       </c>
       <c r="R145" s="51" t="s">
@@ -11173,36 +11219,38 @@
     <row r="146" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B146" s="30"/>
       <c r="D146" s="32" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E146" s="32"/>
       <c r="F146" s="32" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G146" s="32"/>
-      <c r="H146" s="32"/>
+      <c r="H146" s="32" t="s">
+        <v>1178</v>
+      </c>
       <c r="I146" s="32"/>
       <c r="J146" s="32" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="K146" s="32" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="L146" s="32" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M146" s="32"/>
       <c r="N146" s="32" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="O146" s="32" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="P146" s="32" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="Q146" s="32" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="R146" s="32"/>
       <c r="S146" s="39"/>
@@ -13148,43 +13196,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="43" priority="40">
+    <cfRule type="expression" dxfId="43" priority="39">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="41" priority="38">
+    <cfRule type="expression" dxfId="41" priority="37">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="37">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="39" priority="36">
+    <cfRule type="expression" dxfId="39" priority="35">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="35">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="37" priority="48">
+    <cfRule type="expression" dxfId="37" priority="47">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="47">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="35" priority="33">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="33">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
@@ -13196,19 +13244,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="31" priority="29">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="29">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="27">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -13220,19 +13268,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="25" priority="24">
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="23">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="23" priority="21">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="21">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -13244,35 +13292,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="17">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="11">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -13284,11 +13332,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
@@ -13329,6 +13377,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAA3DB6-1098-4565-9BEC-B747DFD21577}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D038A5F-A0F6-43B4-BF75-B3B091AF8576}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -13360,7 +13458,7 @@
         <v>135</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>503</v>
@@ -13377,7 +13475,7 @@
         <v>147</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>402</v>
@@ -13394,7 +13492,7 @@
         <v>181</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>505</v>
@@ -13411,7 +13509,7 @@
         <v>204</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>507</v>
@@ -13428,7 +13526,7 @@
         <v>222</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>509</v>
@@ -13445,7 +13543,7 @@
         <v>250</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>511</v>
@@ -13462,7 +13560,7 @@
         <v>252</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>513</v>
@@ -13479,7 +13577,7 @@
         <v>313</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>515</v>
@@ -13489,37 +13587,6 @@
       </c>
       <c r="E9" t="s">
         <v>526</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C1A7A5-E871-47E3-BBBA-56231777586B}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -13532,7 +13599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2308A34C-9F9B-44D5-9B19-ECB446838F73}">
   <dimension ref="A1:E238"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -13567,7 +13636,7 @@
         <v>518</v>
       </c>
       <c r="E2" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13584,7 +13653,7 @@
         <v>518</v>
       </c>
       <c r="E3" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13601,7 +13670,7 @@
         <v>518</v>
       </c>
       <c r="E4" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13618,7 +13687,7 @@
         <v>518</v>
       </c>
       <c r="E5" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -13635,7 +13704,7 @@
         <v>518</v>
       </c>
       <c r="E6" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -13652,7 +13721,7 @@
         <v>518</v>
       </c>
       <c r="E7" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -13669,7 +13738,7 @@
         <v>518</v>
       </c>
       <c r="E8" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -13686,7 +13755,7 @@
         <v>518</v>
       </c>
       <c r="E9" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13703,7 +13772,7 @@
         <v>518</v>
       </c>
       <c r="E10" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -13720,7 +13789,7 @@
         <v>518</v>
       </c>
       <c r="E11" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -13737,7 +13806,7 @@
         <v>518</v>
       </c>
       <c r="E12" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -13754,7 +13823,7 @@
         <v>518</v>
       </c>
       <c r="E13" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -13771,7 +13840,7 @@
         <v>518</v>
       </c>
       <c r="E14" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -13788,7 +13857,7 @@
         <v>518</v>
       </c>
       <c r="E15" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -13805,7 +13874,7 @@
         <v>518</v>
       </c>
       <c r="E16" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -13822,7 +13891,7 @@
         <v>518</v>
       </c>
       <c r="E17" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -13839,7 +13908,7 @@
         <v>518</v>
       </c>
       <c r="E18" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -13856,7 +13925,7 @@
         <v>518</v>
       </c>
       <c r="E19" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -13873,7 +13942,7 @@
         <v>518</v>
       </c>
       <c r="E20" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -13890,7 +13959,7 @@
         <v>518</v>
       </c>
       <c r="E21" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -13907,7 +13976,7 @@
         <v>518</v>
       </c>
       <c r="E22" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -13924,7 +13993,7 @@
         <v>518</v>
       </c>
       <c r="E23" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -13941,7 +14010,7 @@
         <v>518</v>
       </c>
       <c r="E24" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -13958,7 +14027,7 @@
         <v>518</v>
       </c>
       <c r="E25" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -13975,7 +14044,7 @@
         <v>518</v>
       </c>
       <c r="E26" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -13992,7 +14061,7 @@
         <v>518</v>
       </c>
       <c r="E27" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -14009,7 +14078,7 @@
         <v>518</v>
       </c>
       <c r="E28" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -14026,7 +14095,7 @@
         <v>518</v>
       </c>
       <c r="E29" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -14034,16 +14103,16 @@
         <v>109</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
         <v>341</v>
       </c>
       <c r="D30" t="s">
-        <v>518</v>
+        <v>1181</v>
       </c>
       <c r="E30" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -14060,7 +14129,7 @@
         <v>518</v>
       </c>
       <c r="E31" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -14077,7 +14146,7 @@
         <v>518</v>
       </c>
       <c r="E32" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -14094,7 +14163,7 @@
         <v>518</v>
       </c>
       <c r="E33" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -14111,7 +14180,7 @@
         <v>518</v>
       </c>
       <c r="E34" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -14128,7 +14197,7 @@
         <v>518</v>
       </c>
       <c r="E35" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -14145,7 +14214,7 @@
         <v>518</v>
       </c>
       <c r="E36" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -14162,7 +14231,7 @@
         <v>518</v>
       </c>
       <c r="E37" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -14179,7 +14248,7 @@
         <v>518</v>
       </c>
       <c r="E38" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -14196,7 +14265,7 @@
         <v>518</v>
       </c>
       <c r="E39" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -14213,7 +14282,7 @@
         <v>518</v>
       </c>
       <c r="E40" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -14230,7 +14299,7 @@
         <v>518</v>
       </c>
       <c r="E41" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -14247,7 +14316,7 @@
         <v>518</v>
       </c>
       <c r="E42" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -14264,7 +14333,7 @@
         <v>518</v>
       </c>
       <c r="E43" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -14281,7 +14350,7 @@
         <v>518</v>
       </c>
       <c r="E44" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -14298,7 +14367,7 @@
         <v>518</v>
       </c>
       <c r="E45" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -14315,7 +14384,7 @@
         <v>518</v>
       </c>
       <c r="E46" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -14332,7 +14401,7 @@
         <v>518</v>
       </c>
       <c r="E47" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -14349,7 +14418,7 @@
         <v>518</v>
       </c>
       <c r="E48" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -14366,7 +14435,7 @@
         <v>518</v>
       </c>
       <c r="E49" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -14383,7 +14452,7 @@
         <v>518</v>
       </c>
       <c r="E50" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -14400,7 +14469,7 @@
         <v>518</v>
       </c>
       <c r="E51" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -14417,7 +14486,7 @@
         <v>518</v>
       </c>
       <c r="E52" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -14434,7 +14503,7 @@
         <v>518</v>
       </c>
       <c r="E53" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -14451,7 +14520,7 @@
         <v>518</v>
       </c>
       <c r="E54" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -14468,7 +14537,7 @@
         <v>518</v>
       </c>
       <c r="E55" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -14485,7 +14554,7 @@
         <v>518</v>
       </c>
       <c r="E56" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -14502,7 +14571,7 @@
         <v>518</v>
       </c>
       <c r="E57" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -14519,7 +14588,7 @@
         <v>518</v>
       </c>
       <c r="E58" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -14536,7 +14605,7 @@
         <v>518</v>
       </c>
       <c r="E59" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -14553,7 +14622,7 @@
         <v>518</v>
       </c>
       <c r="E60" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -14570,7 +14639,7 @@
         <v>518</v>
       </c>
       <c r="E61" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -14587,7 +14656,7 @@
         <v>518</v>
       </c>
       <c r="E62" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -14604,7 +14673,7 @@
         <v>518</v>
       </c>
       <c r="E63" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -14621,7 +14690,7 @@
         <v>518</v>
       </c>
       <c r="E64" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -14638,7 +14707,7 @@
         <v>518</v>
       </c>
       <c r="E65" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -14655,7 +14724,7 @@
         <v>518</v>
       </c>
       <c r="E66" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -14672,7 +14741,7 @@
         <v>518</v>
       </c>
       <c r="E67" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -14689,7 +14758,7 @@
         <v>518</v>
       </c>
       <c r="E68" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -14706,7 +14775,7 @@
         <v>518</v>
       </c>
       <c r="E69" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -14723,7 +14792,7 @@
         <v>518</v>
       </c>
       <c r="E70" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -14740,7 +14809,7 @@
         <v>518</v>
       </c>
       <c r="E71" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -14757,7 +14826,7 @@
         <v>518</v>
       </c>
       <c r="E72" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -14774,7 +14843,7 @@
         <v>518</v>
       </c>
       <c r="E73" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -14791,7 +14860,7 @@
         <v>518</v>
       </c>
       <c r="E74" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -14808,7 +14877,7 @@
         <v>518</v>
       </c>
       <c r="E75" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -14825,7 +14894,7 @@
         <v>518</v>
       </c>
       <c r="E76" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -14842,7 +14911,7 @@
         <v>518</v>
       </c>
       <c r="E77" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -14859,7 +14928,7 @@
         <v>518</v>
       </c>
       <c r="E78" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -14876,7 +14945,7 @@
         <v>518</v>
       </c>
       <c r="E79" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -14893,7 +14962,7 @@
         <v>518</v>
       </c>
       <c r="E80" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -14910,7 +14979,7 @@
         <v>518</v>
       </c>
       <c r="E81" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -14927,7 +14996,7 @@
         <v>518</v>
       </c>
       <c r="E82" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -14944,7 +15013,7 @@
         <v>518</v>
       </c>
       <c r="E83" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -14961,7 +15030,7 @@
         <v>518</v>
       </c>
       <c r="E84" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -14978,7 +15047,7 @@
         <v>518</v>
       </c>
       <c r="E85" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -14995,7 +15064,7 @@
         <v>518</v>
       </c>
       <c r="E86" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -15012,7 +15081,7 @@
         <v>518</v>
       </c>
       <c r="E87" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -15029,7 +15098,7 @@
         <v>518</v>
       </c>
       <c r="E88" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -15046,7 +15115,7 @@
         <v>518</v>
       </c>
       <c r="E89" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -15063,7 +15132,7 @@
         <v>518</v>
       </c>
       <c r="E90" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -15080,7 +15149,7 @@
         <v>518</v>
       </c>
       <c r="E91" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -15097,7 +15166,7 @@
         <v>518</v>
       </c>
       <c r="E92" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -15114,7 +15183,7 @@
         <v>518</v>
       </c>
       <c r="E93" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -15131,7 +15200,7 @@
         <v>518</v>
       </c>
       <c r="E94" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -15148,7 +15217,7 @@
         <v>518</v>
       </c>
       <c r="E95" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -15165,7 +15234,7 @@
         <v>518</v>
       </c>
       <c r="E96" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -15182,7 +15251,7 @@
         <v>518</v>
       </c>
       <c r="E97" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -15199,7 +15268,7 @@
         <v>518</v>
       </c>
       <c r="E98" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -15216,7 +15285,7 @@
         <v>518</v>
       </c>
       <c r="E99" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -15233,7 +15302,7 @@
         <v>518</v>
       </c>
       <c r="E100" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -15250,7 +15319,7 @@
         <v>518</v>
       </c>
       <c r="E101" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -15267,7 +15336,7 @@
         <v>518</v>
       </c>
       <c r="E102" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -15284,7 +15353,7 @@
         <v>518</v>
       </c>
       <c r="E103" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -15301,7 +15370,7 @@
         <v>518</v>
       </c>
       <c r="E104" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -15318,7 +15387,7 @@
         <v>518</v>
       </c>
       <c r="E105" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -15335,7 +15404,7 @@
         <v>518</v>
       </c>
       <c r="E106" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -15352,7 +15421,7 @@
         <v>518</v>
       </c>
       <c r="E107" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -15369,7 +15438,7 @@
         <v>518</v>
       </c>
       <c r="E108" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -15386,7 +15455,7 @@
         <v>518</v>
       </c>
       <c r="E109" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -15403,7 +15472,7 @@
         <v>518</v>
       </c>
       <c r="E110" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -15420,7 +15489,7 @@
         <v>518</v>
       </c>
       <c r="E111" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -15437,7 +15506,7 @@
         <v>518</v>
       </c>
       <c r="E112" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -15454,7 +15523,7 @@
         <v>518</v>
       </c>
       <c r="E113" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -15471,7 +15540,7 @@
         <v>518</v>
       </c>
       <c r="E114" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -15488,7 +15557,7 @@
         <v>518</v>
       </c>
       <c r="E115" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -15505,7 +15574,7 @@
         <v>518</v>
       </c>
       <c r="E116" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -15522,7 +15591,7 @@
         <v>518</v>
       </c>
       <c r="E117" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -15539,7 +15608,7 @@
         <v>518</v>
       </c>
       <c r="E118" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -15556,7 +15625,7 @@
         <v>518</v>
       </c>
       <c r="E119" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -15573,7 +15642,7 @@
         <v>518</v>
       </c>
       <c r="E120" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -15590,7 +15659,7 @@
         <v>518</v>
       </c>
       <c r="E121" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -15607,7 +15676,7 @@
         <v>518</v>
       </c>
       <c r="E122" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -15624,7 +15693,7 @@
         <v>518</v>
       </c>
       <c r="E123" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -15641,7 +15710,7 @@
         <v>518</v>
       </c>
       <c r="E124" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -15658,7 +15727,7 @@
         <v>518</v>
       </c>
       <c r="E125" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -15675,7 +15744,7 @@
         <v>518</v>
       </c>
       <c r="E126" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -15692,7 +15761,7 @@
         <v>518</v>
       </c>
       <c r="E127" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -15709,7 +15778,7 @@
         <v>518</v>
       </c>
       <c r="E128" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -15726,7 +15795,7 @@
         <v>518</v>
       </c>
       <c r="E129" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -15743,7 +15812,7 @@
         <v>518</v>
       </c>
       <c r="E130" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -15760,7 +15829,7 @@
         <v>518</v>
       </c>
       <c r="E131" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -15777,7 +15846,7 @@
         <v>518</v>
       </c>
       <c r="E132" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -15794,7 +15863,7 @@
         <v>518</v>
       </c>
       <c r="E133" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -15811,7 +15880,7 @@
         <v>518</v>
       </c>
       <c r="E134" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -15828,7 +15897,7 @@
         <v>518</v>
       </c>
       <c r="E135" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -15845,7 +15914,7 @@
         <v>518</v>
       </c>
       <c r="E136" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -15862,7 +15931,7 @@
         <v>518</v>
       </c>
       <c r="E137" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -15879,7 +15948,7 @@
         <v>518</v>
       </c>
       <c r="E138" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -15896,7 +15965,7 @@
         <v>518</v>
       </c>
       <c r="E139" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -15913,7 +15982,7 @@
         <v>518</v>
       </c>
       <c r="E140" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -15930,7 +15999,7 @@
         <v>518</v>
       </c>
       <c r="E141" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -15947,7 +16016,7 @@
         <v>518</v>
       </c>
       <c r="E142" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -15964,7 +16033,7 @@
         <v>518</v>
       </c>
       <c r="E143" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -15981,7 +16050,7 @@
         <v>518</v>
       </c>
       <c r="E144" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -15998,7 +16067,7 @@
         <v>518</v>
       </c>
       <c r="E145" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -16015,7 +16084,7 @@
         <v>518</v>
       </c>
       <c r="E146" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -16032,7 +16101,7 @@
         <v>518</v>
       </c>
       <c r="E147" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -16049,7 +16118,7 @@
         <v>518</v>
       </c>
       <c r="E148" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -16066,7 +16135,7 @@
         <v>518</v>
       </c>
       <c r="E149" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -16083,7 +16152,7 @@
         <v>518</v>
       </c>
       <c r="E150" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -16100,7 +16169,7 @@
         <v>518</v>
       </c>
       <c r="E151" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -16117,7 +16186,7 @@
         <v>518</v>
       </c>
       <c r="E152" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -16134,7 +16203,7 @@
         <v>518</v>
       </c>
       <c r="E153" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -16151,7 +16220,7 @@
         <v>518</v>
       </c>
       <c r="E154" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -16168,7 +16237,7 @@
         <v>518</v>
       </c>
       <c r="E155" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -16185,7 +16254,7 @@
         <v>518</v>
       </c>
       <c r="E156" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -16202,7 +16271,7 @@
         <v>518</v>
       </c>
       <c r="E157" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -16219,7 +16288,7 @@
         <v>518</v>
       </c>
       <c r="E158" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -16236,7 +16305,7 @@
         <v>518</v>
       </c>
       <c r="E159" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -16253,7 +16322,7 @@
         <v>518</v>
       </c>
       <c r="E160" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -16270,7 +16339,7 @@
         <v>518</v>
       </c>
       <c r="E161" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -16287,7 +16356,7 @@
         <v>518</v>
       </c>
       <c r="E162" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -16304,7 +16373,7 @@
         <v>518</v>
       </c>
       <c r="E163" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -16321,7 +16390,7 @@
         <v>518</v>
       </c>
       <c r="E164" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -16338,7 +16407,7 @@
         <v>518</v>
       </c>
       <c r="E165" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -16355,7 +16424,7 @@
         <v>518</v>
       </c>
       <c r="E166" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -16372,7 +16441,7 @@
         <v>518</v>
       </c>
       <c r="E167" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -16389,7 +16458,7 @@
         <v>518</v>
       </c>
       <c r="E168" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -16406,7 +16475,7 @@
         <v>518</v>
       </c>
       <c r="E169" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -16423,7 +16492,7 @@
         <v>518</v>
       </c>
       <c r="E170" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -16440,7 +16509,7 @@
         <v>518</v>
       </c>
       <c r="E171" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -16457,7 +16526,7 @@
         <v>518</v>
       </c>
       <c r="E172" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -16474,7 +16543,7 @@
         <v>518</v>
       </c>
       <c r="E173" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -16491,7 +16560,7 @@
         <v>518</v>
       </c>
       <c r="E174" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -16508,7 +16577,7 @@
         <v>518</v>
       </c>
       <c r="E175" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -16525,7 +16594,7 @@
         <v>518</v>
       </c>
       <c r="E176" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -16542,7 +16611,7 @@
         <v>518</v>
       </c>
       <c r="E177" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -16559,7 +16628,7 @@
         <v>518</v>
       </c>
       <c r="E178" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -16576,7 +16645,7 @@
         <v>518</v>
       </c>
       <c r="E179" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -16593,7 +16662,7 @@
         <v>518</v>
       </c>
       <c r="E180" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -16610,7 +16679,7 @@
         <v>518</v>
       </c>
       <c r="E181" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -16627,7 +16696,7 @@
         <v>518</v>
       </c>
       <c r="E182" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -16644,7 +16713,7 @@
         <v>518</v>
       </c>
       <c r="E183" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -16661,7 +16730,7 @@
         <v>518</v>
       </c>
       <c r="E184" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -16678,7 +16747,7 @@
         <v>518</v>
       </c>
       <c r="E185" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -16695,7 +16764,7 @@
         <v>518</v>
       </c>
       <c r="E186" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -16712,7 +16781,7 @@
         <v>518</v>
       </c>
       <c r="E187" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -16729,7 +16798,7 @@
         <v>518</v>
       </c>
       <c r="E188" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -16746,7 +16815,7 @@
         <v>518</v>
       </c>
       <c r="E189" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -16763,7 +16832,7 @@
         <v>518</v>
       </c>
       <c r="E190" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -16780,7 +16849,7 @@
         <v>518</v>
       </c>
       <c r="E191" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -16797,7 +16866,7 @@
         <v>518</v>
       </c>
       <c r="E192" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -16814,7 +16883,7 @@
         <v>518</v>
       </c>
       <c r="E193" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -16831,7 +16900,7 @@
         <v>518</v>
       </c>
       <c r="E194" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -16848,7 +16917,7 @@
         <v>518</v>
       </c>
       <c r="E195" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -16865,7 +16934,7 @@
         <v>518</v>
       </c>
       <c r="E196" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -16882,7 +16951,7 @@
         <v>518</v>
       </c>
       <c r="E197" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -16899,7 +16968,7 @@
         <v>518</v>
       </c>
       <c r="E198" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -16916,7 +16985,7 @@
         <v>518</v>
       </c>
       <c r="E199" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -16933,7 +17002,7 @@
         <v>518</v>
       </c>
       <c r="E200" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -16950,7 +17019,7 @@
         <v>518</v>
       </c>
       <c r="E201" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -16967,7 +17036,7 @@
         <v>518</v>
       </c>
       <c r="E202" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -16984,7 +17053,7 @@
         <v>518</v>
       </c>
       <c r="E203" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -17001,7 +17070,7 @@
         <v>518</v>
       </c>
       <c r="E204" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -17018,7 +17087,7 @@
         <v>518</v>
       </c>
       <c r="E205" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -17035,7 +17104,7 @@
         <v>518</v>
       </c>
       <c r="E206" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -17052,7 +17121,7 @@
         <v>518</v>
       </c>
       <c r="E207" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -17069,7 +17138,7 @@
         <v>518</v>
       </c>
       <c r="E208" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -17086,7 +17155,7 @@
         <v>518</v>
       </c>
       <c r="E209" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -17103,7 +17172,7 @@
         <v>518</v>
       </c>
       <c r="E210" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -17120,7 +17189,7 @@
         <v>518</v>
       </c>
       <c r="E211" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -17137,7 +17206,7 @@
         <v>518</v>
       </c>
       <c r="E212" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -17154,7 +17223,7 @@
         <v>518</v>
       </c>
       <c r="E213" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -17171,7 +17240,7 @@
         <v>518</v>
       </c>
       <c r="E214" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -17188,7 +17257,7 @@
         <v>518</v>
       </c>
       <c r="E215" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -17205,7 +17274,7 @@
         <v>518</v>
       </c>
       <c r="E216" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -17222,7 +17291,7 @@
         <v>518</v>
       </c>
       <c r="E217" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -17239,7 +17308,7 @@
         <v>518</v>
       </c>
       <c r="E218" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -17256,7 +17325,7 @@
         <v>518</v>
       </c>
       <c r="E219" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -17273,7 +17342,7 @@
         <v>518</v>
       </c>
       <c r="E220" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -17290,7 +17359,7 @@
         <v>518</v>
       </c>
       <c r="E221" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -17307,7 +17376,7 @@
         <v>518</v>
       </c>
       <c r="E222" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -17324,7 +17393,7 @@
         <v>518</v>
       </c>
       <c r="E223" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -17341,7 +17410,7 @@
         <v>518</v>
       </c>
       <c r="E224" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -17358,7 +17427,7 @@
         <v>518</v>
       </c>
       <c r="E225" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -17375,7 +17444,7 @@
         <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -17392,7 +17461,7 @@
         <v>518</v>
       </c>
       <c r="E227" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -17409,7 +17478,7 @@
         <v>518</v>
       </c>
       <c r="E228" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -17426,7 +17495,7 @@
         <v>518</v>
       </c>
       <c r="E229" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -17443,7 +17512,7 @@
         <v>518</v>
       </c>
       <c r="E230" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -17460,7 +17529,7 @@
         <v>518</v>
       </c>
       <c r="E231" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -17477,7 +17546,7 @@
         <v>518</v>
       </c>
       <c r="E232" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -17494,7 +17563,7 @@
         <v>518</v>
       </c>
       <c r="E233" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -17511,7 +17580,7 @@
         <v>518</v>
       </c>
       <c r="E234" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -17528,7 +17597,7 @@
         <v>518</v>
       </c>
       <c r="E235" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -17545,7 +17614,7 @@
         <v>518</v>
       </c>
       <c r="E236" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -17562,7 +17631,7 @@
         <v>518</v>
       </c>
       <c r="E237" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -17579,7 +17648,7 @@
         <v>518</v>
       </c>
       <c r="E238" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
   </sheetData>
